--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6802,28 +6802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>765.7371723370907</v>
+        <v>838.553220914585</v>
       </c>
       <c r="AB2" t="n">
-        <v>1047.715381131442</v>
+        <v>1147.345511212512</v>
       </c>
       <c r="AC2" t="n">
-        <v>947.7228956340296</v>
+        <v>1037.844465931928</v>
       </c>
       <c r="AD2" t="n">
-        <v>765737.1723370907</v>
+        <v>838553.2209145851</v>
       </c>
       <c r="AE2" t="n">
-        <v>1047715.381131442</v>
+        <v>1147345.511212512</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.572097273814925e-06</v>
+        <v>2.657708442878589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.88845486111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>947722.8956340295</v>
+        <v>1037844.465931928</v>
       </c>
     </row>
     <row r="3">
@@ -6908,28 +6908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>384.7770449622276</v>
+        <v>426.3497304345303</v>
       </c>
       <c r="AB3" t="n">
-        <v>526.4689280824975</v>
+        <v>583.3505104031439</v>
       </c>
       <c r="AC3" t="n">
-        <v>476.2234724900845</v>
+        <v>527.6763564278507</v>
       </c>
       <c r="AD3" t="n">
-        <v>384777.0449622276</v>
+        <v>426349.7304345304</v>
       </c>
       <c r="AE3" t="n">
-        <v>526468.9280824976</v>
+        <v>583350.5104031438</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.473266230155443e-06</v>
+        <v>4.181179276152383e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.192274305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>476223.4724900845</v>
+        <v>527676.3564278507</v>
       </c>
     </row>
     <row r="4">
@@ -7014,28 +7014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>319.6925972814632</v>
+        <v>350.9361394037567</v>
       </c>
       <c r="AB4" t="n">
-        <v>437.4175154424918</v>
+        <v>480.166308142012</v>
       </c>
       <c r="AC4" t="n">
-        <v>395.6710016879983</v>
+        <v>434.3399096105837</v>
       </c>
       <c r="AD4" t="n">
-        <v>319692.5972814632</v>
+        <v>350936.1394037567</v>
       </c>
       <c r="AE4" t="n">
-        <v>437417.5154424919</v>
+        <v>480166.308142012</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.807609996489405e-06</v>
+        <v>4.746404002007487e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.215711805555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>395671.0016879984</v>
+        <v>434339.9096105837</v>
       </c>
     </row>
     <row r="5">
@@ -7120,28 +7120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>286.0371575448063</v>
+        <v>327.609753508558</v>
       </c>
       <c r="AB5" t="n">
-        <v>391.3686580215868</v>
+        <v>448.2501178726847</v>
       </c>
       <c r="AC5" t="n">
-        <v>354.0169825893672</v>
+        <v>405.4697557459066</v>
       </c>
       <c r="AD5" t="n">
-        <v>286037.1575448064</v>
+        <v>327609.753508558</v>
       </c>
       <c r="AE5" t="n">
-        <v>391368.6580215868</v>
+        <v>448250.1178726847</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.988366637545688e-06</v>
+        <v>5.051982072170983e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.779513888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>354016.9825893671</v>
+        <v>405469.7557459066</v>
       </c>
     </row>
     <row r="6">
@@ -7226,28 +7226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>273.5626105635455</v>
+        <v>304.8914040318597</v>
       </c>
       <c r="AB6" t="n">
-        <v>374.300432503654</v>
+        <v>417.1658698558232</v>
       </c>
       <c r="AC6" t="n">
-        <v>338.5777245594608</v>
+        <v>377.3521447327583</v>
       </c>
       <c r="AD6" t="n">
-        <v>273562.6105635455</v>
+        <v>304891.4040318597</v>
       </c>
       <c r="AE6" t="n">
-        <v>374300.4325036539</v>
+        <v>417165.8698558232</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.096204406357675e-06</v>
+        <v>5.234287170848069e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.545138888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>338577.7245594608</v>
+        <v>377352.1447327583</v>
       </c>
     </row>
     <row r="7">
@@ -7332,28 +7332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>264.9098011970901</v>
+        <v>296.068002464812</v>
       </c>
       <c r="AB7" t="n">
-        <v>362.4612769934618</v>
+        <v>405.0933025707841</v>
       </c>
       <c r="AC7" t="n">
-        <v>327.8684814348023</v>
+        <v>366.4317663254487</v>
       </c>
       <c r="AD7" t="n">
-        <v>264909.8011970901</v>
+        <v>296068.002464812</v>
       </c>
       <c r="AE7" t="n">
-        <v>362461.2769934618</v>
+        <v>405093.3025707841</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.176405829223041e-06</v>
+        <v>5.369871655491894e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.378038194444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>327868.4814348023</v>
+        <v>366431.7663254488</v>
       </c>
     </row>
     <row r="8">
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>259.2659684922986</v>
+        <v>290.4241697600204</v>
       </c>
       <c r="AB8" t="n">
-        <v>354.7391360984398</v>
+        <v>397.3711616757623</v>
       </c>
       <c r="AC8" t="n">
-        <v>320.8833308287084</v>
+        <v>359.446615719355</v>
       </c>
       <c r="AD8" t="n">
-        <v>259265.9684922986</v>
+        <v>290424.1697600204</v>
       </c>
       <c r="AE8" t="n">
-        <v>354739.1360984398</v>
+        <v>397371.1616757623</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.227850513738542e-06</v>
+        <v>5.456841447155161e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.276041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>320883.3308287084</v>
+        <v>359446.6157193549</v>
       </c>
     </row>
     <row r="9">
@@ -7544,28 +7544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>254.3235523357976</v>
+        <v>285.4817536035227</v>
       </c>
       <c r="AB9" t="n">
-        <v>347.9767042689388</v>
+        <v>390.60872984643</v>
       </c>
       <c r="AC9" t="n">
-        <v>314.766296001987</v>
+        <v>353.3295808926815</v>
       </c>
       <c r="AD9" t="n">
-        <v>254323.5523357976</v>
+        <v>285481.7536035227</v>
       </c>
       <c r="AE9" t="n">
-        <v>347976.7042689388</v>
+        <v>390608.72984643</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.273319772103423e-06</v>
+        <v>5.533709484432859e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.189236111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>314766.2960019869</v>
+        <v>353329.5808926815</v>
       </c>
     </row>
     <row r="10">
@@ -7650,28 +7650,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>250.9066098817359</v>
+        <v>282.064811149461</v>
       </c>
       <c r="AB10" t="n">
-        <v>343.3014928584319</v>
+        <v>385.9335184359206</v>
       </c>
       <c r="AC10" t="n">
-        <v>310.5372802067969</v>
+        <v>349.1005650974907</v>
       </c>
       <c r="AD10" t="n">
-        <v>250906.6098817359</v>
+        <v>282064.811149461</v>
       </c>
       <c r="AE10" t="n">
-        <v>343301.4928584319</v>
+        <v>385933.5184359206</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.305344321629408e-06</v>
+        <v>5.587848574343024e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.130642361111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>310537.2802067969</v>
+        <v>349100.5650974907</v>
       </c>
     </row>
     <row r="11">
@@ -7756,28 +7756,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>247.9411147476933</v>
+        <v>279.0993160154183</v>
       </c>
       <c r="AB11" t="n">
-        <v>339.2439715876249</v>
+        <v>381.8759971651116</v>
       </c>
       <c r="AC11" t="n">
-        <v>306.8670030713076</v>
+        <v>345.4302879620008</v>
       </c>
       <c r="AD11" t="n">
-        <v>247941.1147476934</v>
+        <v>279099.3160154183</v>
       </c>
       <c r="AE11" t="n">
-        <v>339243.9715876249</v>
+        <v>381875.9971651116</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.332420471374409e-06</v>
+        <v>5.633622148902638e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.080729166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>306867.0030713076</v>
+        <v>345430.2879620008</v>
       </c>
     </row>
     <row r="12">
@@ -7862,28 +7862,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>245.3093656621497</v>
+        <v>276.4675669298747</v>
       </c>
       <c r="AB12" t="n">
-        <v>335.6430963842106</v>
+        <v>378.2751219616954</v>
       </c>
       <c r="AC12" t="n">
-        <v>303.6097903434459</v>
+        <v>342.1730752341385</v>
       </c>
       <c r="AD12" t="n">
-        <v>245309.3656621497</v>
+        <v>276467.5669298747</v>
       </c>
       <c r="AE12" t="n">
-        <v>335643.0963842106</v>
+        <v>378275.1219616954</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.353707927035996e-06</v>
+        <v>5.669609648901231e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>303609.7903434458</v>
+        <v>342173.0752341385</v>
       </c>
     </row>
     <row r="13">
@@ -7968,28 +7968,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>243.1461558125323</v>
+        <v>274.3043570802572</v>
       </c>
       <c r="AB13" t="n">
-        <v>332.6832972338823</v>
+        <v>375.3153228113656</v>
       </c>
       <c r="AC13" t="n">
-        <v>300.9324702699197</v>
+        <v>339.495755160612</v>
       </c>
       <c r="AD13" t="n">
-        <v>243146.1558125323</v>
+        <v>274304.3570802572</v>
       </c>
       <c r="AE13" t="n">
-        <v>332683.2972338823</v>
+        <v>375315.3228113656</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.371167375319841e-06</v>
+        <v>5.699125712496569e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.011284722222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>300932.4702699197</v>
+        <v>339495.755160612</v>
       </c>
     </row>
     <row r="14">
@@ -8074,28 +8074,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>230.2667610261555</v>
+        <v>271.7540161353385</v>
       </c>
       <c r="AB14" t="n">
-        <v>315.061141088374</v>
+        <v>371.825833817426</v>
       </c>
       <c r="AC14" t="n">
-        <v>284.9921479740816</v>
+        <v>336.3392980987255</v>
       </c>
       <c r="AD14" t="n">
-        <v>230266.7610261555</v>
+        <v>271754.0161353385</v>
       </c>
       <c r="AE14" t="n">
-        <v>315061.141088374</v>
+        <v>371825.833817426</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.390214046174946e-06</v>
+        <v>5.731325054600574e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.9765625</v>
       </c>
       <c r="AH14" t="n">
-        <v>284992.1479740816</v>
+        <v>336339.2980987254</v>
       </c>
     </row>
     <row r="15">
@@ -8180,28 +8180,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>228.9759259785316</v>
+        <v>270.4631810877145</v>
       </c>
       <c r="AB15" t="n">
-        <v>313.2949636285927</v>
+        <v>370.0596563576439</v>
       </c>
       <c r="AC15" t="n">
-        <v>283.3945320122157</v>
+        <v>334.7416821368593</v>
       </c>
       <c r="AD15" t="n">
-        <v>228975.9259785316</v>
+        <v>270463.1810877145</v>
       </c>
       <c r="AE15" t="n">
-        <v>313294.9636285927</v>
+        <v>370059.6563576438</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.397589962829618e-06</v>
+        <v>5.743794407670262e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.963541666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>283394.5320122157</v>
+        <v>334741.6821368593</v>
       </c>
     </row>
     <row r="16">
@@ -8286,28 +8286,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>225.9735926215481</v>
+        <v>257.2170452352901</v>
       </c>
       <c r="AB16" t="n">
-        <v>309.1870386759702</v>
+        <v>351.93570890592</v>
       </c>
       <c r="AC16" t="n">
-        <v>279.6786616515614</v>
+        <v>318.3474587929138</v>
       </c>
       <c r="AD16" t="n">
-        <v>225973.5926215481</v>
+        <v>257217.0452352901</v>
       </c>
       <c r="AE16" t="n">
-        <v>309187.0386759702</v>
+        <v>351935.70890592</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.42009117692805e-06</v>
+        <v>5.781833826528426e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.924479166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>279678.6616515614</v>
+        <v>318347.4587929138</v>
       </c>
     </row>
     <row r="17">
@@ -8392,28 +8392,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>224.6064459256276</v>
+        <v>255.8498985393697</v>
       </c>
       <c r="AB17" t="n">
-        <v>307.3164482523573</v>
+        <v>350.0651184823071</v>
       </c>
       <c r="AC17" t="n">
-        <v>277.9865977525873</v>
+        <v>316.6553948939397</v>
       </c>
       <c r="AD17" t="n">
-        <v>224606.4459256276</v>
+        <v>255849.8985393697</v>
       </c>
       <c r="AE17" t="n">
-        <v>307316.4482523573</v>
+        <v>350065.1184823071</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.428587485985964e-06</v>
+        <v>5.796197258545408e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.909288194444445</v>
       </c>
       <c r="AH17" t="n">
-        <v>277986.5977525873</v>
+        <v>316655.3948939397</v>
       </c>
     </row>
     <row r="18">
@@ -8498,28 +8498,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>222.9062111848505</v>
+        <v>254.1496637985925</v>
       </c>
       <c r="AB18" t="n">
-        <v>304.9901120709643</v>
+        <v>347.738782300914</v>
       </c>
       <c r="AC18" t="n">
-        <v>275.8822838313124</v>
+        <v>314.5510809726647</v>
       </c>
       <c r="AD18" t="n">
-        <v>222906.2111848505</v>
+        <v>254149.6637985925</v>
       </c>
       <c r="AE18" t="n">
-        <v>304990.1120709643</v>
+        <v>347738.782300914</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.438764383648741e-06</v>
+        <v>5.813401808983331e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.891927083333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>275882.2838313124</v>
+        <v>314551.0809726648</v>
       </c>
     </row>
     <row r="19">
@@ -8604,28 +8604,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>222.0286342620642</v>
+        <v>253.2720868758063</v>
       </c>
       <c r="AB19" t="n">
-        <v>303.7893726092473</v>
+        <v>346.5380428391971</v>
       </c>
       <c r="AC19" t="n">
-        <v>274.7961412585729</v>
+        <v>313.4649383999254</v>
       </c>
       <c r="AD19" t="n">
-        <v>222028.6342620642</v>
+        <v>253272.0868758063</v>
       </c>
       <c r="AE19" t="n">
-        <v>303789.3726092473</v>
+        <v>346538.0428391971</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.439698043984775e-06</v>
+        <v>5.814980208106076e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.889756944444445</v>
       </c>
       <c r="AH19" t="n">
-        <v>274796.1412585729</v>
+        <v>313464.9383999254</v>
       </c>
     </row>
     <row r="20">
@@ -8710,28 +8710,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>221.4222056756191</v>
+        <v>252.6656582893612</v>
       </c>
       <c r="AB20" t="n">
-        <v>302.9596302635325</v>
+        <v>345.7083004934823</v>
       </c>
       <c r="AC20" t="n">
-        <v>274.0455883577821</v>
+        <v>312.7143854991346</v>
       </c>
       <c r="AD20" t="n">
-        <v>221422.2056756191</v>
+        <v>252665.6582893612</v>
       </c>
       <c r="AE20" t="n">
-        <v>302959.6302635325</v>
+        <v>345708.3004934823</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.446513764437827e-06</v>
+        <v>5.826502521702117e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.87890625</v>
       </c>
       <c r="AH20" t="n">
-        <v>274045.5883577821</v>
+        <v>312714.3854991345</v>
       </c>
     </row>
     <row r="21">
@@ -8816,28 +8816,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>219.3345536771989</v>
+        <v>250.5780062909409</v>
       </c>
       <c r="AB21" t="n">
-        <v>300.1032126985893</v>
+        <v>342.8518829285391</v>
       </c>
       <c r="AC21" t="n">
-        <v>271.4617832762289</v>
+        <v>310.1305804175814</v>
       </c>
       <c r="AD21" t="n">
-        <v>219334.5536771989</v>
+        <v>250578.0062909409</v>
       </c>
       <c r="AE21" t="n">
-        <v>300103.2126985893</v>
+        <v>342851.8829285391</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.457624322436638e-06</v>
+        <v>5.845285471262787e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.859375</v>
       </c>
       <c r="AH21" t="n">
-        <v>271461.7832762289</v>
+        <v>310130.5804175814</v>
       </c>
     </row>
     <row r="22">
@@ -8922,28 +8922,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>218.4784879843818</v>
+        <v>249.7219405981238</v>
       </c>
       <c r="AB22" t="n">
-        <v>298.9319058507247</v>
+        <v>341.6805760806744</v>
       </c>
       <c r="AC22" t="n">
-        <v>270.4022643099846</v>
+        <v>309.0710614513371</v>
       </c>
       <c r="AD22" t="n">
-        <v>218478.4879843818</v>
+        <v>249721.9405981238</v>
       </c>
       <c r="AE22" t="n">
-        <v>298931.9058507247</v>
+        <v>341680.5760806744</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.456223831932586e-06</v>
+        <v>5.84291787257867e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.861545138888889</v>
       </c>
       <c r="AH22" t="n">
-        <v>270402.2643099846</v>
+        <v>309071.0614513371</v>
       </c>
     </row>
     <row r="23">
@@ -9028,28 +9028,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>217.1735484837557</v>
+        <v>248.4170010974978</v>
       </c>
       <c r="AB23" t="n">
-        <v>297.1464300561013</v>
+        <v>339.895100286051</v>
       </c>
       <c r="AC23" t="n">
-        <v>268.7871918192686</v>
+        <v>307.455988960621</v>
       </c>
       <c r="AD23" t="n">
-        <v>217173.5484837557</v>
+        <v>248417.0010974978</v>
       </c>
       <c r="AE23" t="n">
-        <v>297146.4300561013</v>
+        <v>339895.100286051</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.466960925796983e-06</v>
+        <v>5.86106946249024e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>5.844184027777778</v>
       </c>
       <c r="AH23" t="n">
-        <v>268787.1918192686</v>
+        <v>307455.988960621</v>
       </c>
     </row>
     <row r="24">
@@ -9134,28 +9134,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>215.9951362222906</v>
+        <v>247.2385888360326</v>
       </c>
       <c r="AB24" t="n">
-        <v>295.5340744120857</v>
+        <v>338.2827446420354</v>
       </c>
       <c r="AC24" t="n">
-        <v>267.3287171349619</v>
+        <v>305.9975142763144</v>
       </c>
       <c r="AD24" t="n">
-        <v>215995.1362222906</v>
+        <v>247238.5888360326</v>
       </c>
       <c r="AE24" t="n">
-        <v>295534.0744120857</v>
+        <v>338282.7446420354</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.465840533393741e-06</v>
+        <v>5.859175383542946e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>5.846354166666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>267328.7171349619</v>
+        <v>305997.5142763144</v>
       </c>
     </row>
     <row r="25">
@@ -9240,28 +9240,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>214.2345271459825</v>
+        <v>245.4779797597245</v>
       </c>
       <c r="AB25" t="n">
-        <v>293.1251314012915</v>
+        <v>335.8738016312412</v>
       </c>
       <c r="AC25" t="n">
-        <v>265.1496802641444</v>
+        <v>303.8184774054969</v>
       </c>
       <c r="AD25" t="n">
-        <v>214234.5271459825</v>
+        <v>245477.9797597245</v>
       </c>
       <c r="AE25" t="n">
-        <v>293125.1314012915</v>
+        <v>335873.8016312412</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.477324555526966e-06</v>
+        <v>5.878589692752714e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>5.826822916666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>265149.6802641444</v>
+        <v>303818.4774054969</v>
       </c>
     </row>
     <row r="26">
@@ -9346,28 +9346,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>213.653075684706</v>
+        <v>244.896528298448</v>
       </c>
       <c r="AB26" t="n">
-        <v>292.3295638601454</v>
+        <v>335.0782340900951</v>
       </c>
       <c r="AC26" t="n">
-        <v>264.430040572539</v>
+        <v>303.0988377138914</v>
       </c>
       <c r="AD26" t="n">
-        <v>213653.075684706</v>
+        <v>244896.528298448</v>
       </c>
       <c r="AE26" t="n">
-        <v>292329.5638601454</v>
+        <v>335078.2340900951</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.4755506008885e-06</v>
+        <v>5.875590734419497e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>5.828993055555555</v>
       </c>
       <c r="AH26" t="n">
-        <v>264430.040572539</v>
+        <v>303098.8377138914</v>
       </c>
     </row>
     <row r="27">
@@ -9452,28 +9452,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>212.2036842009145</v>
+        <v>243.4471368146565</v>
       </c>
       <c r="AB27" t="n">
-        <v>290.3464424893834</v>
+        <v>333.0951127193331</v>
       </c>
       <c r="AC27" t="n">
-        <v>262.6361855220737</v>
+        <v>301.3049826634261</v>
       </c>
       <c r="AD27" t="n">
-        <v>212203.6842009145</v>
+        <v>243447.1368146565</v>
       </c>
       <c r="AE27" t="n">
-        <v>290346.4424893834</v>
+        <v>333095.1127193331</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.484887204248846e-06</v>
+        <v>5.89137472564695e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>6</v>
+        <v>5.813802083333333</v>
       </c>
       <c r="AH27" t="n">
-        <v>262636.1855220736</v>
+        <v>301304.9826634261</v>
       </c>
     </row>
     <row r="28">
@@ -9558,28 +9558,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>212.7377982143453</v>
+        <v>243.9812508280873</v>
       </c>
       <c r="AB28" t="n">
-        <v>291.0772408460062</v>
+        <v>333.825911075956</v>
       </c>
       <c r="AC28" t="n">
-        <v>263.2972375092226</v>
+        <v>301.966034650575</v>
       </c>
       <c r="AD28" t="n">
-        <v>212737.7982143453</v>
+        <v>243981.2508280873</v>
       </c>
       <c r="AE28" t="n">
-        <v>291077.2408460063</v>
+        <v>333825.911075956</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.484327008047225e-06</v>
+        <v>5.890427686173303e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>6</v>
+        <v>5.815972222222222</v>
       </c>
       <c r="AH28" t="n">
-        <v>263297.2375092225</v>
+        <v>301966.034650575</v>
       </c>
     </row>
   </sheetData>
@@ -9855,28 +9855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>542.2208416474099</v>
+        <v>602.6789078559991</v>
       </c>
       <c r="AB2" t="n">
-        <v>741.8904766372543</v>
+        <v>824.6118700454841</v>
       </c>
       <c r="AC2" t="n">
-        <v>671.0854907968177</v>
+        <v>745.9120705183709</v>
       </c>
       <c r="AD2" t="n">
-        <v>542220.8416474098</v>
+        <v>602678.9078559991</v>
       </c>
       <c r="AE2" t="n">
-        <v>741890.4766372544</v>
+        <v>824611.8700454842</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.927950261533773e-06</v>
+        <v>3.338806925798868e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.87239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>671085.4907968177</v>
+        <v>745912.070518371</v>
       </c>
     </row>
     <row r="3">
@@ -9961,28 +9961,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.3486336980171</v>
+        <v>353.7109050734576</v>
       </c>
       <c r="AB3" t="n">
-        <v>428.7374245917002</v>
+        <v>483.9628649453185</v>
       </c>
       <c r="AC3" t="n">
-        <v>387.8193265254223</v>
+        <v>437.7741283610836</v>
       </c>
       <c r="AD3" t="n">
-        <v>313348.6336980171</v>
+        <v>353710.9050734576</v>
       </c>
       <c r="AE3" t="n">
-        <v>428737.4245917002</v>
+        <v>483962.8649453185</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.759651063200389e-06</v>
+        <v>4.779138895041594e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.595486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>387819.3265254223</v>
+        <v>437774.1283610836</v>
       </c>
     </row>
     <row r="4">
@@ -10067,28 +10067,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>265.3019388510673</v>
+        <v>305.5788693719362</v>
       </c>
       <c r="AB4" t="n">
-        <v>362.9978170315257</v>
+        <v>418.1064902629464</v>
       </c>
       <c r="AC4" t="n">
-        <v>328.3538148446721</v>
+        <v>378.2029936483946</v>
       </c>
       <c r="AD4" t="n">
-        <v>265301.9388510673</v>
+        <v>305578.8693719362</v>
       </c>
       <c r="AE4" t="n">
-        <v>362997.8170315257</v>
+        <v>418106.4902629463</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.064476023142305e-06</v>
+        <v>5.307032019525398e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.840277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>328353.8148446721</v>
+        <v>378202.9936483946</v>
       </c>
     </row>
     <row r="5">
@@ -10173,28 +10173,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>248.8153168969414</v>
+        <v>279.1723612830965</v>
       </c>
       <c r="AB5" t="n">
-        <v>340.4400935353024</v>
+        <v>381.9759409228786</v>
       </c>
       <c r="AC5" t="n">
-        <v>307.9489688190667</v>
+        <v>345.5206932277985</v>
       </c>
       <c r="AD5" t="n">
-        <v>248815.3168969414</v>
+        <v>279172.3612830965</v>
       </c>
       <c r="AE5" t="n">
-        <v>340440.0935353024</v>
+        <v>381975.9409228786</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.223456341286916e-06</v>
+        <v>5.582352704855038e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.501736111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>307948.9688190668</v>
+        <v>345520.6932277985</v>
       </c>
     </row>
     <row r="6">
@@ -10279,28 +10279,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>238.8042474058361</v>
+        <v>268.9906995913989</v>
       </c>
       <c r="AB6" t="n">
-        <v>326.7425066003636</v>
+        <v>368.0449422130859</v>
       </c>
       <c r="AC6" t="n">
-        <v>295.5586603565102</v>
+        <v>332.9192494825888</v>
       </c>
       <c r="AD6" t="n">
-        <v>238804.2474058361</v>
+        <v>268990.6995913989</v>
       </c>
       <c r="AE6" t="n">
-        <v>326742.5066003636</v>
+        <v>368044.9422130859</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.326610034955473e-06</v>
+        <v>5.760993343938911e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.299913194444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>295558.6603565102</v>
+        <v>332919.2494825888</v>
       </c>
     </row>
     <row r="7">
@@ -10385,28 +10385,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>232.5477652900212</v>
+        <v>262.7342174755839</v>
       </c>
       <c r="AB7" t="n">
-        <v>318.1821117529994</v>
+        <v>359.4845473657172</v>
       </c>
       <c r="AC7" t="n">
-        <v>287.815257578786</v>
+        <v>325.1758467048634</v>
       </c>
       <c r="AD7" t="n">
-        <v>232547.7652900212</v>
+        <v>262734.2174755839</v>
       </c>
       <c r="AE7" t="n">
-        <v>318182.1117529994</v>
+        <v>359484.5473657172</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.391708901559038e-06</v>
+        <v>5.873730975720307e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.180555555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>287815.2575787861</v>
+        <v>325175.8467048634</v>
       </c>
     </row>
     <row r="8">
@@ -10491,28 +10491,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>227.5515893742999</v>
+        <v>257.7380415598594</v>
       </c>
       <c r="AB8" t="n">
-        <v>311.3461234493877</v>
+        <v>352.6485590619308</v>
       </c>
       <c r="AC8" t="n">
-        <v>281.6316864044991</v>
+        <v>318.9922755305267</v>
       </c>
       <c r="AD8" t="n">
-        <v>227551.5893742999</v>
+        <v>257738.0415598594</v>
       </c>
       <c r="AE8" t="n">
-        <v>311346.1234493877</v>
+        <v>352648.5590619308</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.442416475693863e-06</v>
+        <v>5.961545896618277e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.089409722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>281631.6864044991</v>
+        <v>318992.2755305267</v>
       </c>
     </row>
     <row r="9">
@@ -10597,28 +10597,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>224.0298744637984</v>
+        <v>254.2163266493579</v>
       </c>
       <c r="AB9" t="n">
-        <v>306.5275577417454</v>
+        <v>347.8299933542885</v>
       </c>
       <c r="AC9" t="n">
-        <v>277.2729978450931</v>
+        <v>314.6335869711207</v>
       </c>
       <c r="AD9" t="n">
-        <v>224029.8744637984</v>
+        <v>254216.3266493579</v>
       </c>
       <c r="AE9" t="n">
-        <v>306527.5577417454</v>
+        <v>347829.9933542885</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.476897626105544e-06</v>
+        <v>6.021260042828899e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.028645833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>277272.9978450931</v>
+        <v>314633.5869711207</v>
       </c>
     </row>
     <row r="10">
@@ -10703,28 +10703,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>210.790065171212</v>
+        <v>250.9816548375087</v>
       </c>
       <c r="AB10" t="n">
-        <v>288.4122665684753</v>
+        <v>343.4041726776699</v>
       </c>
       <c r="AC10" t="n">
-        <v>260.8866046364233</v>
+        <v>310.6301604081989</v>
       </c>
       <c r="AD10" t="n">
-        <v>210790.065171212</v>
+        <v>250981.6548375087</v>
       </c>
       <c r="AE10" t="n">
-        <v>288412.2665684753</v>
+        <v>343404.1726776699</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.503265564655652e-06</v>
+        <v>6.066923801695843e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.983072916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>260886.6046364233</v>
+        <v>310630.1604081989</v>
       </c>
     </row>
     <row r="11">
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>207.8118562217924</v>
+        <v>238.0835597533724</v>
       </c>
       <c r="AB11" t="n">
-        <v>284.3373496945757</v>
+        <v>325.756429959768</v>
       </c>
       <c r="AC11" t="n">
-        <v>257.2005921097856</v>
+        <v>294.6666934865255</v>
       </c>
       <c r="AD11" t="n">
-        <v>207811.8562217924</v>
+        <v>238083.5597533724</v>
       </c>
       <c r="AE11" t="n">
-        <v>284337.3496945756</v>
+        <v>325756.429959768</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.529343745639277e-06</v>
+        <v>6.112085761014801e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.939670138888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>257200.5921097856</v>
+        <v>294666.6934865255</v>
       </c>
     </row>
     <row r="12">
@@ -10915,28 +10915,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>205.5173378027671</v>
+        <v>235.789041334347</v>
       </c>
       <c r="AB12" t="n">
-        <v>281.1978883666583</v>
+        <v>322.6169686318507</v>
       </c>
       <c r="AC12" t="n">
-        <v>254.3607565647421</v>
+        <v>291.8268579414819</v>
       </c>
       <c r="AD12" t="n">
-        <v>205517.3378027671</v>
+        <v>235789.041334347</v>
       </c>
       <c r="AE12" t="n">
-        <v>281197.8883666583</v>
+        <v>322616.9686318507</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.547791644038803e-06</v>
+        <v>6.144033665570063e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.907118055555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>254360.7565647421</v>
+        <v>291826.8579414819</v>
       </c>
     </row>
     <row r="13">
@@ -11021,28 +11021,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>204.0471334544213</v>
+        <v>234.3188369860013</v>
       </c>
       <c r="AB13" t="n">
-        <v>279.1862899164144</v>
+        <v>320.6053701816069</v>
       </c>
       <c r="AC13" t="n">
-        <v>252.5411422472927</v>
+        <v>290.0072436240326</v>
       </c>
       <c r="AD13" t="n">
-        <v>204047.1334544213</v>
+        <v>234318.8369860013</v>
       </c>
       <c r="AE13" t="n">
-        <v>279186.2899164144</v>
+        <v>320605.3701816068</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.553490209513002e-06</v>
+        <v>6.153902390013835e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.8984375</v>
       </c>
       <c r="AH13" t="n">
-        <v>252541.1422472927</v>
+        <v>290007.2436240326</v>
       </c>
     </row>
     <row r="14">
@@ -11127,28 +11127,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>201.1382356742791</v>
+        <v>231.409939205859</v>
       </c>
       <c r="AB14" t="n">
-        <v>275.206207642113</v>
+        <v>316.6252879073054</v>
       </c>
       <c r="AC14" t="n">
-        <v>248.9409134391688</v>
+        <v>286.4070148159086</v>
       </c>
       <c r="AD14" t="n">
-        <v>201138.2356742791</v>
+        <v>231409.9392058591</v>
       </c>
       <c r="AE14" t="n">
-        <v>275206.207642113</v>
+        <v>316625.2879073054</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.57609129969881e-06</v>
+        <v>6.19304275475693e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.861545138888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>248940.9134391688</v>
+        <v>286407.0148159086</v>
       </c>
     </row>
     <row r="15">
@@ -11233,28 +11233,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>199.5972562457689</v>
+        <v>229.8689597773489</v>
       </c>
       <c r="AB15" t="n">
-        <v>273.097771604812</v>
+        <v>314.5168518700044</v>
       </c>
       <c r="AC15" t="n">
-        <v>247.0337035780585</v>
+        <v>284.4998049547984</v>
       </c>
       <c r="AD15" t="n">
-        <v>199597.2562457689</v>
+        <v>229868.9597773488</v>
       </c>
       <c r="AE15" t="n">
-        <v>273097.771604812</v>
+        <v>314516.8518700044</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.584687440837856e-06</v>
+        <v>6.207929474680586e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.846354166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>247033.7035780585</v>
+        <v>284499.8049547984</v>
       </c>
     </row>
     <row r="16">
@@ -11339,28 +11339,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>197.7126601579065</v>
+        <v>227.9843636894865</v>
       </c>
       <c r="AB16" t="n">
-        <v>270.5191840948885</v>
+        <v>311.938264360081</v>
       </c>
       <c r="AC16" t="n">
-        <v>244.7012128410111</v>
+        <v>282.167314217751</v>
       </c>
       <c r="AD16" t="n">
-        <v>197712.6601579065</v>
+        <v>227984.3636894865</v>
       </c>
       <c r="AE16" t="n">
-        <v>270519.1840948886</v>
+        <v>311938.2643600809</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.59560164250878e-06</v>
+        <v>6.22683059098815e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.828993055555555</v>
       </c>
       <c r="AH16" t="n">
-        <v>244701.2128410111</v>
+        <v>282167.314217751</v>
       </c>
     </row>
     <row r="17">
@@ -11445,28 +11445,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>196.409155632321</v>
+        <v>226.680859163901</v>
       </c>
       <c r="AB17" t="n">
-        <v>268.7356716964223</v>
+        <v>310.1547519616147</v>
       </c>
       <c r="AC17" t="n">
-        <v>243.0879163626785</v>
+        <v>280.5540177394183</v>
       </c>
       <c r="AD17" t="n">
-        <v>196409.155632321</v>
+        <v>226680.859163901</v>
       </c>
       <c r="AE17" t="n">
-        <v>268735.6716964223</v>
+        <v>310154.7519616147</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.601010450416495e-06</v>
+        <v>6.236197515883933e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.8203125</v>
       </c>
       <c r="AH17" t="n">
-        <v>243087.9163626785</v>
+        <v>280554.0177394183</v>
       </c>
     </row>
     <row r="18">
@@ -11551,28 +11551,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>194.1429961769547</v>
+        <v>224.4146997085346</v>
       </c>
       <c r="AB18" t="n">
-        <v>265.6350123536924</v>
+        <v>307.0540926188848</v>
       </c>
       <c r="AC18" t="n">
-        <v>240.2831795958151</v>
+        <v>277.7492809725549</v>
       </c>
       <c r="AD18" t="n">
-        <v>194142.9961769547</v>
+        <v>224414.6997085346</v>
       </c>
       <c r="AE18" t="n">
-        <v>265635.0123536924</v>
+        <v>307054.0926188848</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.612310995509399e-06</v>
+        <v>6.255767698255482e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.802951388888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>240283.1795958151</v>
+        <v>277749.2809725549</v>
       </c>
     </row>
     <row r="19">
@@ -11657,28 +11657,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>192.1356762381446</v>
+        <v>222.4073797697245</v>
       </c>
       <c r="AB19" t="n">
-        <v>262.8885086567082</v>
+        <v>304.3075889219005</v>
       </c>
       <c r="AC19" t="n">
-        <v>237.7987983569279</v>
+        <v>275.2648997336678</v>
       </c>
       <c r="AD19" t="n">
-        <v>192135.6762381446</v>
+        <v>222407.3797697245</v>
       </c>
       <c r="AE19" t="n">
-        <v>262888.5086567082</v>
+        <v>304307.5889219005</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.622549096191858e-06</v>
+        <v>6.273497948951071e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.785590277777778</v>
       </c>
       <c r="AH19" t="n">
-        <v>237798.7983569279</v>
+        <v>275264.8997336678</v>
       </c>
     </row>
     <row r="20">
@@ -11763,28 +11763,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>192.6433492901919</v>
+        <v>222.9150528217719</v>
       </c>
       <c r="AB20" t="n">
-        <v>263.5831293234732</v>
+        <v>305.0022095886656</v>
       </c>
       <c r="AC20" t="n">
-        <v>238.4271254021634</v>
+        <v>275.8932267789032</v>
       </c>
       <c r="AD20" t="n">
-        <v>192643.3492901919</v>
+        <v>222915.0528217719</v>
       </c>
       <c r="AE20" t="n">
-        <v>263583.1293234732</v>
+        <v>305002.2095886656</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.62119689421493e-06</v>
+        <v>6.271156217727127e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.787760416666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>238427.1254021634</v>
+        <v>275893.2267789032</v>
       </c>
     </row>
     <row r="21">
@@ -11869,28 +11869,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>193.3235549808328</v>
+        <v>223.5952585124128</v>
       </c>
       <c r="AB21" t="n">
-        <v>264.5138167579648</v>
+        <v>305.9328970231572</v>
       </c>
       <c r="AC21" t="n">
-        <v>239.2689893341354</v>
+        <v>276.7350907108753</v>
       </c>
       <c r="AD21" t="n">
-        <v>193323.5549808328</v>
+        <v>223595.2585124128</v>
       </c>
       <c r="AE21" t="n">
-        <v>264513.8167579648</v>
+        <v>305932.8970231572</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.620907136648445e-06</v>
+        <v>6.270654418179138e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.787760416666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>239268.9893341354</v>
+        <v>276735.0907108753</v>
       </c>
     </row>
   </sheetData>
@@ -12166,28 +12166,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.8477448207193</v>
+        <v>273.3092072715837</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.0655334486059</v>
+        <v>373.9537149402274</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.1371737652</v>
+        <v>338.2640972336666</v>
       </c>
       <c r="AD2" t="n">
-        <v>236847.7448207193</v>
+        <v>273309.2072715837</v>
       </c>
       <c r="AE2" t="n">
-        <v>324065.5334486059</v>
+        <v>373953.7149402275</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.062016672201198e-06</v>
+        <v>5.793994458313603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.638888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>293137.1737652</v>
+        <v>338264.0972336666</v>
       </c>
     </row>
     <row r="3">
@@ -12272,28 +12272,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.5058713366695</v>
+        <v>208.7667168287946</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.344340636622</v>
+        <v>285.6438321025523</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.6427053198062</v>
+        <v>258.382385670405</v>
       </c>
       <c r="AD3" t="n">
-        <v>181505.8713366695</v>
+        <v>208766.7168287947</v>
       </c>
       <c r="AE3" t="n">
-        <v>248344.340636622</v>
+        <v>285643.8321025523</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.647993394131363e-06</v>
+        <v>6.902788512371927e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.410590277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>224642.7053198062</v>
+        <v>258382.3856704051</v>
       </c>
     </row>
     <row r="4">
@@ -12378,28 +12378,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.2443143796393</v>
+        <v>195.5051598717645</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.1992933494209</v>
+        <v>267.4987848153513</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.229395878956</v>
+        <v>241.9690762295548</v>
       </c>
       <c r="AD4" t="n">
-        <v>168244.3143796393</v>
+        <v>195505.1598717645</v>
       </c>
       <c r="AE4" t="n">
-        <v>230199.2933494209</v>
+        <v>267498.7848153512</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.849426260286868e-06</v>
+        <v>7.283942841420117e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.076388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>208229.395878956</v>
+        <v>241969.0762295548</v>
       </c>
     </row>
     <row r="5">
@@ -12484,28 +12484,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.7205533668968</v>
+        <v>179.0666502050425</v>
       </c>
       <c r="AB5" t="n">
-        <v>207.5907545549106</v>
+        <v>245.0068906734901</v>
       </c>
       <c r="AC5" t="n">
-        <v>187.778584295703</v>
+        <v>221.6237768970141</v>
       </c>
       <c r="AD5" t="n">
-        <v>151720.5533668968</v>
+        <v>179066.6502050425</v>
       </c>
       <c r="AE5" t="n">
-        <v>207590.7545549106</v>
+        <v>245006.8906734902</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.951705441657426e-06</v>
+        <v>7.477477062001567e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.91796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>187778.584295703</v>
+        <v>221623.7768970141</v>
       </c>
     </row>
     <row r="6">
@@ -12590,28 +12590,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.3638058130537</v>
+        <v>173.7099026511994</v>
       </c>
       <c r="AB6" t="n">
-        <v>200.261416228723</v>
+        <v>237.6775523473025</v>
       </c>
       <c r="AC6" t="n">
-        <v>181.1487477325735</v>
+        <v>214.9939403338846</v>
       </c>
       <c r="AD6" t="n">
-        <v>146363.8058130537</v>
+        <v>173709.9026511994</v>
       </c>
       <c r="AE6" t="n">
-        <v>200261.416228723</v>
+        <v>237677.5523473025</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.013676494648018e-06</v>
+        <v>7.594739629793281e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.826822916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>181148.7477325735</v>
+        <v>214993.9403338846</v>
       </c>
     </row>
     <row r="7">
@@ -12696,28 +12696,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>145.5280573833405</v>
+        <v>172.8741542214862</v>
       </c>
       <c r="AB7" t="n">
-        <v>199.1179083565715</v>
+        <v>236.534044475151</v>
       </c>
       <c r="AC7" t="n">
-        <v>180.1143746468164</v>
+        <v>213.9595672481275</v>
       </c>
       <c r="AD7" t="n">
-        <v>145528.0573833405</v>
+        <v>172874.1542214862</v>
       </c>
       <c r="AE7" t="n">
-        <v>199117.9083565715</v>
+        <v>236534.044475151</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.019819712074911e-06</v>
+        <v>7.606363919122197e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.818142361111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>180114.3746468164</v>
+        <v>213959.5672481275</v>
       </c>
     </row>
   </sheetData>
@@ -12993,28 +12993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>321.4835160422494</v>
+        <v>359.5553800127109</v>
       </c>
       <c r="AB2" t="n">
-        <v>439.867929500759</v>
+        <v>491.9595333972417</v>
       </c>
       <c r="AC2" t="n">
-        <v>397.8875516677223</v>
+        <v>445.0076059993498</v>
       </c>
       <c r="AD2" t="n">
-        <v>321483.5160422494</v>
+        <v>359555.3800127109</v>
       </c>
       <c r="AE2" t="n">
-        <v>439867.929500759</v>
+        <v>491959.5333972417</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.608057027738811e-06</v>
+        <v>4.751313500328695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.578559027777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>397887.5516677223</v>
+        <v>445007.6059993498</v>
       </c>
     </row>
     <row r="3">
@@ -13099,28 +13099,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.8079749351705</v>
+        <v>259.7091571964914</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.487456783389</v>
+        <v>355.3455264356222</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.5230398553929</v>
+        <v>321.4318481231844</v>
       </c>
       <c r="AD3" t="n">
-        <v>221807.9749351705</v>
+        <v>259709.1571964914</v>
       </c>
       <c r="AE3" t="n">
-        <v>303487.456783389</v>
+        <v>355345.5264356222</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.293812603603244e-06</v>
+        <v>6.000611230737318e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.792534722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>274523.0398553929</v>
+        <v>321431.8481231843</v>
       </c>
     </row>
     <row r="4">
@@ -13205,28 +13205,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.1622573336908</v>
+        <v>230.5668983245872</v>
       </c>
       <c r="AB4" t="n">
-        <v>276.6073192531667</v>
+        <v>315.471802181211</v>
       </c>
       <c r="AC4" t="n">
-        <v>250.2083049245364</v>
+        <v>285.363616148585</v>
       </c>
       <c r="AD4" t="n">
-        <v>202162.2573336908</v>
+        <v>230566.8983245872</v>
       </c>
       <c r="AE4" t="n">
-        <v>276607.3192531667</v>
+        <v>315471.8021812111</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.537657429481966e-06</v>
+        <v>6.444843546541917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.325954861111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>250208.3049245364</v>
+        <v>285363.616148585</v>
       </c>
     </row>
     <row r="5">
@@ -13311,28 +13311,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>192.308129833077</v>
+        <v>220.7127708239734</v>
       </c>
       <c r="AB5" t="n">
-        <v>263.1244672734102</v>
+        <v>301.9889502014547</v>
       </c>
       <c r="AC5" t="n">
-        <v>238.012237414422</v>
+        <v>273.1675486384706</v>
       </c>
       <c r="AD5" t="n">
-        <v>192308.129833077</v>
+        <v>220712.7708239734</v>
       </c>
       <c r="AE5" t="n">
-        <v>263124.4672734102</v>
+        <v>301988.9502014547</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.665095993873552e-06</v>
+        <v>6.677008934421193e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.104600694444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>238012.237414422</v>
+        <v>273167.5486384706</v>
       </c>
     </row>
     <row r="6">
@@ -13417,28 +13417,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>176.9068693592672</v>
+        <v>214.7227107660133</v>
       </c>
       <c r="AB6" t="n">
-        <v>242.0517832374956</v>
+        <v>293.7930857673587</v>
       </c>
       <c r="AC6" t="n">
-        <v>218.9507007671907</v>
+        <v>265.7538860029942</v>
       </c>
       <c r="AD6" t="n">
-        <v>176906.8693592672</v>
+        <v>214722.7107660132</v>
       </c>
       <c r="AE6" t="n">
-        <v>242051.7832374956</v>
+        <v>293793.0857673587</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.735723353588953e-06</v>
+        <v>6.805676645341341e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>218950.7007671907</v>
+        <v>265753.8860029942</v>
       </c>
     </row>
     <row r="7">
@@ -13523,28 +13523,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>171.9612119883372</v>
+        <v>200.4511043252541</v>
       </c>
       <c r="AB7" t="n">
-        <v>235.2849166355882</v>
+        <v>274.2660442162818</v>
       </c>
       <c r="AC7" t="n">
-        <v>212.8296544164102</v>
+        <v>248.090477891171</v>
       </c>
       <c r="AD7" t="n">
-        <v>171961.2119883372</v>
+        <v>200451.1043252541</v>
       </c>
       <c r="AE7" t="n">
-        <v>235284.9166355882</v>
+        <v>274266.0442162819</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.789956917399613e-06</v>
+        <v>6.904478420442069e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.902777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>212829.6544164102</v>
+        <v>248090.477891171</v>
       </c>
     </row>
     <row r="8">
@@ -13629,28 +13629,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>167.7929902713292</v>
+        <v>196.2828826082462</v>
       </c>
       <c r="AB8" t="n">
-        <v>229.5817717934169</v>
+        <v>268.5628993741106</v>
       </c>
       <c r="AC8" t="n">
-        <v>207.6708097135599</v>
+        <v>242.9316331883207</v>
       </c>
       <c r="AD8" t="n">
-        <v>167792.9902713292</v>
+        <v>196282.8826082462</v>
       </c>
       <c r="AE8" t="n">
-        <v>229581.7717934169</v>
+        <v>268562.8993741106</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.830580537440296e-06</v>
+        <v>6.978485833730446e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.842013888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>207670.8097135599</v>
+        <v>242931.6331883207</v>
       </c>
     </row>
     <row r="9">
@@ -13735,28 +13735,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>164.7452147011337</v>
+        <v>193.2351070380506</v>
       </c>
       <c r="AB9" t="n">
-        <v>225.4116707999089</v>
+        <v>264.3927983806026</v>
       </c>
       <c r="AC9" t="n">
-        <v>203.8986973060974</v>
+        <v>239.1595207808582</v>
       </c>
       <c r="AD9" t="n">
-        <v>164745.2147011337</v>
+        <v>193235.1070380506</v>
       </c>
       <c r="AE9" t="n">
-        <v>225411.6707999089</v>
+        <v>264392.7983806026</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.853985516499268e-06</v>
+        <v>7.021124622604713e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.805121527777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>203898.6973060974</v>
+        <v>239159.5207808582</v>
       </c>
     </row>
     <row r="10">
@@ -13841,28 +13841,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>162.3786322512676</v>
+        <v>190.8685245881846</v>
       </c>
       <c r="AB10" t="n">
-        <v>222.1736082857547</v>
+        <v>261.1547358664483</v>
       </c>
       <c r="AC10" t="n">
-        <v>200.9696709336437</v>
+        <v>236.2304944084046</v>
       </c>
       <c r="AD10" t="n">
-        <v>162378.6322512676</v>
+        <v>190868.5245881845</v>
       </c>
       <c r="AE10" t="n">
-        <v>222173.6082857547</v>
+        <v>261154.7358664483</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.869657572961665e-06</v>
+        <v>7.049675705903783e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH10" t="n">
-        <v>200969.6709336437</v>
+        <v>236230.4944084046</v>
       </c>
     </row>
     <row r="11">
@@ -13947,28 +13947,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>162.8863309941086</v>
+        <v>191.3762233310256</v>
       </c>
       <c r="AB11" t="n">
-        <v>222.8682641037971</v>
+        <v>261.8493916844908</v>
       </c>
       <c r="AC11" t="n">
-        <v>201.598029775368</v>
+        <v>236.8588532501288</v>
       </c>
       <c r="AD11" t="n">
-        <v>162886.3309941086</v>
+        <v>191376.2233310256</v>
       </c>
       <c r="AE11" t="n">
-        <v>222868.2641037971</v>
+        <v>261849.3916844908</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.86924515042318e-06</v>
+        <v>7.048924361606438e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.783420138888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>201598.029775368</v>
+        <v>236858.8532501289</v>
       </c>
     </row>
   </sheetData>
@@ -14244,28 +14244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.0843480874294</v>
+        <v>216.492387497182</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.08179098269</v>
+        <v>296.2144355435698</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.2599498784642</v>
+        <v>267.9441455549502</v>
       </c>
       <c r="AD2" t="n">
-        <v>190084.3480874294</v>
+        <v>216492.387497182</v>
       </c>
       <c r="AE2" t="n">
-        <v>260081.79098269</v>
+        <v>296214.4355435698</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.454848435027338e-06</v>
+        <v>6.770389778872089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>235259.9498784642</v>
+        <v>267944.1455549502</v>
       </c>
     </row>
     <row r="3">
@@ -14350,28 +14350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.000091531172</v>
+        <v>178.3227900863531</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.9732310036253</v>
+        <v>243.9891084423074</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.1245577289615</v>
+        <v>220.7031303735088</v>
       </c>
       <c r="AD3" t="n">
-        <v>152000.091531172</v>
+        <v>178322.7900863531</v>
       </c>
       <c r="AE3" t="n">
-        <v>207973.2310036253</v>
+        <v>243989.1084423074</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.954410675932149e-06</v>
+        <v>7.74937081185787e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.143663194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>188124.5577289615</v>
+        <v>220703.1303735088</v>
       </c>
     </row>
     <row r="4">
@@ -14456,28 +14456,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.9969191970081</v>
+        <v>159.4048690982097</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.9722522552404</v>
+        <v>218.1047743465718</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.6050758997114</v>
+        <v>197.2891607949709</v>
       </c>
       <c r="AD4" t="n">
-        <v>132996.9191970081</v>
+        <v>159404.8690982097</v>
       </c>
       <c r="AE4" t="n">
-        <v>181972.2522552404</v>
+        <v>218104.7743465718</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.116491367133173e-06</v>
+        <v>8.066996744137372e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.900607638888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>164605.0758997114</v>
+        <v>197289.1607949709</v>
       </c>
     </row>
     <row r="5">
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.1423838653703</v>
+        <v>158.5503337665719</v>
       </c>
       <c r="AB5" t="n">
-        <v>180.8030393150559</v>
+        <v>216.9355614063873</v>
       </c>
       <c r="AC5" t="n">
-        <v>163.5474510015371</v>
+        <v>196.2315358967966</v>
       </c>
       <c r="AD5" t="n">
-        <v>132142.3838653703</v>
+        <v>158550.3337665719</v>
       </c>
       <c r="AE5" t="n">
-        <v>180803.0393150559</v>
+        <v>216935.5614063873</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.138430466218394e-06</v>
+        <v>8.109990309556418e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.870225694444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>163547.4510015371</v>
+        <v>196231.5358967966</v>
       </c>
     </row>
   </sheetData>
@@ -14859,28 +14859,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>596.3505695694188</v>
+        <v>657.234216308923</v>
       </c>
       <c r="AB2" t="n">
-        <v>815.9531584152037</v>
+        <v>899.2568498811194</v>
       </c>
       <c r="AC2" t="n">
-        <v>738.0797341735063</v>
+        <v>813.4330382433802</v>
       </c>
       <c r="AD2" t="n">
-        <v>596350.5695694188</v>
+        <v>657234.216308923</v>
       </c>
       <c r="AE2" t="n">
-        <v>815953.1584152037</v>
+        <v>899256.8498811193</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.833004136767511e-06</v>
+        <v>3.153649170192068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.33246527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>738079.7341735063</v>
+        <v>813433.0382433803</v>
       </c>
     </row>
     <row r="3">
@@ -14965,28 +14965,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>327.4806344242467</v>
+        <v>368.1834603843111</v>
       </c>
       <c r="AB3" t="n">
-        <v>448.073451445198</v>
+        <v>503.7648536057065</v>
       </c>
       <c r="AC3" t="n">
-        <v>405.3099501143063</v>
+        <v>455.6862430159899</v>
       </c>
       <c r="AD3" t="n">
-        <v>327480.6344242467</v>
+        <v>368183.4603843111</v>
       </c>
       <c r="AE3" t="n">
-        <v>448073.451445198</v>
+        <v>503764.8536057065</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.687097918092655e-06</v>
+        <v>4.623101470224644e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.730034722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>405309.9501143064</v>
+        <v>455686.2430159899</v>
       </c>
     </row>
     <row r="4">
@@ -15071,28 +15071,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>275.4738790885202</v>
+        <v>316.091364194013</v>
       </c>
       <c r="AB4" t="n">
-        <v>376.9155144187405</v>
+        <v>432.4901494570514</v>
       </c>
       <c r="AC4" t="n">
-        <v>340.9432267268621</v>
+        <v>391.2138965966067</v>
       </c>
       <c r="AD4" t="n">
-        <v>275473.8790885202</v>
+        <v>316091.3641940129</v>
       </c>
       <c r="AE4" t="n">
-        <v>376915.5144187405</v>
+        <v>432490.1494570514</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.001053718019414e-06</v>
+        <v>5.163256523918116e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.922743055555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>340943.2267268621</v>
+        <v>391213.8965966067</v>
       </c>
     </row>
     <row r="5">
@@ -15177,28 +15177,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>258.0673700728417</v>
+        <v>288.6798303974616</v>
       </c>
       <c r="AB5" t="n">
-        <v>353.0991608625086</v>
+        <v>394.9844796050876</v>
       </c>
       <c r="AC5" t="n">
-        <v>319.3998725275748</v>
+        <v>357.2877152357761</v>
       </c>
       <c r="AD5" t="n">
-        <v>258067.3700728417</v>
+        <v>288679.8303974615</v>
       </c>
       <c r="AE5" t="n">
-        <v>353099.1608625086</v>
+        <v>394984.4796050877</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.162051783713563e-06</v>
+        <v>5.440250670354829e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.569010416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>319399.8725275748</v>
+        <v>357287.7152357762</v>
       </c>
     </row>
     <row r="6">
@@ -15283,28 +15283,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>247.5717476487244</v>
+        <v>278.0136157727552</v>
       </c>
       <c r="AB6" t="n">
-        <v>338.7385872274895</v>
+        <v>380.3904941953856</v>
       </c>
       <c r="AC6" t="n">
-        <v>306.4098518851919</v>
+        <v>344.0865593107889</v>
       </c>
       <c r="AD6" t="n">
-        <v>247571.7476487244</v>
+        <v>278013.6157727552</v>
       </c>
       <c r="AE6" t="n">
-        <v>338738.5872274895</v>
+        <v>380390.4941953856</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.264661728079869e-06</v>
+        <v>5.616789151318061e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.362847222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>306409.8518851919</v>
+        <v>344086.5593107889</v>
       </c>
     </row>
     <row r="7">
@@ -15389,28 +15389,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>240.813530654876</v>
+        <v>271.2553987789067</v>
       </c>
       <c r="AB7" t="n">
-        <v>329.4916965850194</v>
+        <v>371.1436035529107</v>
       </c>
       <c r="AC7" t="n">
-        <v>298.0454715075437</v>
+        <v>335.7221789331393</v>
       </c>
       <c r="AD7" t="n">
-        <v>240813.530654876</v>
+        <v>271255.3987789067</v>
       </c>
       <c r="AE7" t="n">
-        <v>329491.6965850195</v>
+        <v>371143.6035529107</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.332334517881155e-06</v>
+        <v>5.733218914416014e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.232638888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>298045.4715075437</v>
+        <v>335722.1789331393</v>
       </c>
     </row>
     <row r="8">
@@ -15495,28 +15495,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>235.9659278757959</v>
+        <v>266.4077959998265</v>
       </c>
       <c r="AB8" t="n">
-        <v>322.8589926015444</v>
+        <v>364.5108995694323</v>
       </c>
       <c r="AC8" t="n">
-        <v>292.045783483191</v>
+        <v>329.7224909087856</v>
       </c>
       <c r="AD8" t="n">
-        <v>235965.9278757959</v>
+        <v>266407.7959998265</v>
       </c>
       <c r="AE8" t="n">
-        <v>322858.9926015444</v>
+        <v>364510.8995694323</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.380863661345444e-06</v>
+        <v>5.81671239375217e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.143663194444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>292045.783483191</v>
+        <v>329722.4909087855</v>
       </c>
     </row>
     <row r="9">
@@ -15601,28 +15601,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>231.3727017155088</v>
+        <v>261.8145698395394</v>
       </c>
       <c r="AB9" t="n">
-        <v>316.5743379302061</v>
+        <v>358.2262448980908</v>
       </c>
       <c r="AC9" t="n">
-        <v>286.360927433115</v>
+        <v>324.0376348587087</v>
       </c>
       <c r="AD9" t="n">
-        <v>231372.7017155088</v>
+        <v>261814.5698395394</v>
       </c>
       <c r="AE9" t="n">
-        <v>316574.3379302061</v>
+        <v>358226.2448980908</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.426521257859184e-06</v>
+        <v>5.895265430524056e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.061197916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>286360.927433115</v>
+        <v>324037.6348587087</v>
       </c>
     </row>
     <row r="10">
@@ -15707,28 +15707,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>228.4504011541875</v>
+        <v>258.892269278218</v>
       </c>
       <c r="AB10" t="n">
-        <v>312.5759173794063</v>
+        <v>354.2278243472889</v>
       </c>
       <c r="AC10" t="n">
-        <v>282.7441105278637</v>
+        <v>320.4208179534569</v>
       </c>
       <c r="AD10" t="n">
-        <v>228450.4011541875</v>
+        <v>258892.269278218</v>
       </c>
       <c r="AE10" t="n">
-        <v>312575.9173794063</v>
+        <v>354227.8243472889</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.453418080962665e-06</v>
+        <v>5.94154090920938e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH10" t="n">
-        <v>282744.1105278637</v>
+        <v>320420.8179534569</v>
       </c>
     </row>
     <row r="11">
@@ -15813,28 +15813,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>215.0405725038093</v>
+        <v>255.5727167547298</v>
       </c>
       <c r="AB11" t="n">
-        <v>294.2279982200811</v>
+        <v>349.6858661361657</v>
       </c>
       <c r="AC11" t="n">
-        <v>266.1472910216324</v>
+        <v>316.31233785943</v>
       </c>
       <c r="AD11" t="n">
-        <v>215040.5725038093</v>
+        <v>255572.7167547298</v>
       </c>
       <c r="AE11" t="n">
-        <v>294227.9982200811</v>
+        <v>349685.8661361657</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.480027749371091e-06</v>
+        <v>5.987322343638278e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.967881944444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>266147.2910216324</v>
+        <v>316312.33785943</v>
       </c>
     </row>
     <row r="12">
@@ -15919,28 +15919,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>212.8177090768075</v>
+        <v>243.3448285468553</v>
       </c>
       <c r="AB12" t="n">
-        <v>291.1865784134455</v>
+        <v>332.9551300338054</v>
       </c>
       <c r="AC12" t="n">
-        <v>263.3961400526817</v>
+        <v>301.1783597289381</v>
       </c>
       <c r="AD12" t="n">
-        <v>212817.7090768075</v>
+        <v>243344.8285468553</v>
       </c>
       <c r="AE12" t="n">
-        <v>291186.5784134455</v>
+        <v>332955.1300338054</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.497352749306074e-06</v>
+        <v>6.017129680442705e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.939670138888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>263396.1400526817</v>
+        <v>301178.3597289381</v>
       </c>
     </row>
     <row r="13">
@@ -16025,28 +16025,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>210.3601836671965</v>
+        <v>240.8873031372443</v>
       </c>
       <c r="AB13" t="n">
-        <v>287.8240837296481</v>
+        <v>329.592635350008</v>
       </c>
       <c r="AC13" t="n">
-        <v>260.3545571422139</v>
+        <v>298.1367768184703</v>
       </c>
       <c r="AD13" t="n">
-        <v>210360.1836671965</v>
+        <v>240887.3031372443</v>
       </c>
       <c r="AE13" t="n">
-        <v>287824.0837296481</v>
+        <v>329592.635350008</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.514964903936112e-06</v>
+        <v>6.047431061503558e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.909288194444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>260354.5571422139</v>
+        <v>298136.7768184703</v>
       </c>
     </row>
     <row r="14">
@@ -16131,28 +16131,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>208.7802605984747</v>
+        <v>239.3073800685225</v>
       </c>
       <c r="AB14" t="n">
-        <v>285.6623632857376</v>
+        <v>327.4309149060975</v>
       </c>
       <c r="AC14" t="n">
-        <v>258.3991482634758</v>
+        <v>296.1813679397321</v>
       </c>
       <c r="AD14" t="n">
-        <v>208780.2605984747</v>
+        <v>239307.3800685226</v>
       </c>
       <c r="AE14" t="n">
-        <v>285662.3632857376</v>
+        <v>327430.9149060975</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.525781064116515e-06</v>
+        <v>6.066040061828973e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.891927083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>258399.1482634758</v>
+        <v>296181.3679397322</v>
       </c>
     </row>
     <row r="15">
@@ -16237,28 +16237,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>206.9725616417549</v>
+        <v>237.4996811118027</v>
       </c>
       <c r="AB15" t="n">
-        <v>283.1889898231053</v>
+        <v>324.9575414434652</v>
       </c>
       <c r="AC15" t="n">
-        <v>256.1618300927149</v>
+        <v>293.9440497689713</v>
       </c>
       <c r="AD15" t="n">
-        <v>206972.5616417549</v>
+        <v>237499.6811118027</v>
       </c>
       <c r="AE15" t="n">
-        <v>283188.9898231053</v>
+        <v>324957.5414434652</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.53468285966322e-06</v>
+        <v>6.081355433778209e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.876736111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>256161.8300927149</v>
+        <v>293944.0497689713</v>
       </c>
     </row>
     <row r="16">
@@ -16343,28 +16343,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>204.9794017916065</v>
+        <v>235.5065212616543</v>
       </c>
       <c r="AB16" t="n">
-        <v>280.4618605841269</v>
+        <v>322.2304122044868</v>
       </c>
       <c r="AC16" t="n">
-        <v>253.6949742407538</v>
+        <v>291.4771939170102</v>
       </c>
       <c r="AD16" t="n">
-        <v>204979.4017916065</v>
+        <v>235506.5212616543</v>
       </c>
       <c r="AE16" t="n">
-        <v>280461.8605841269</v>
+        <v>322230.4122044868</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.544158964600034e-06</v>
+        <v>6.097658894240299e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.861545138888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>253694.9742407538</v>
+        <v>291477.1939170102</v>
       </c>
     </row>
     <row r="17">
@@ -16449,28 +16449,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>203.2719992929848</v>
+        <v>233.7991187630326</v>
       </c>
       <c r="AB17" t="n">
-        <v>278.1257171602318</v>
+        <v>319.8942687805917</v>
       </c>
       <c r="AC17" t="n">
-        <v>251.5817890664366</v>
+        <v>289.364008742693</v>
       </c>
       <c r="AD17" t="n">
-        <v>203271.9992929848</v>
+        <v>233799.1187630326</v>
       </c>
       <c r="AE17" t="n">
-        <v>278125.7171602318</v>
+        <v>319894.2687805917</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.552390732524942e-06</v>
+        <v>6.11182149625787e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.846354166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>251581.7890664366</v>
+        <v>289364.008742693</v>
       </c>
     </row>
     <row r="18">
@@ -16555,28 +16555,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>202.0442070471698</v>
+        <v>232.5713265172176</v>
       </c>
       <c r="AB18" t="n">
-        <v>276.4457976431375</v>
+        <v>318.2143492634974</v>
       </c>
       <c r="AC18" t="n">
-        <v>250.0621987102714</v>
+        <v>287.8444183865278</v>
       </c>
       <c r="AD18" t="n">
-        <v>202044.2070471698</v>
+        <v>232571.3265172176</v>
       </c>
       <c r="AE18" t="n">
-        <v>276445.7976431375</v>
+        <v>318214.3492634974</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.560718218681536e-06</v>
+        <v>6.126148779694253e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>250062.1987102714</v>
+        <v>287844.4183865278</v>
       </c>
     </row>
     <row r="19">
@@ -16661,28 +16661,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>200.141389362915</v>
+        <v>230.6685088329628</v>
       </c>
       <c r="AB19" t="n">
-        <v>273.8422785411498</v>
+        <v>315.6108301615097</v>
       </c>
       <c r="AC19" t="n">
-        <v>247.7071558173146</v>
+        <v>285.4893754935709</v>
       </c>
       <c r="AD19" t="n">
-        <v>200141.389362915</v>
+        <v>230668.5088329628</v>
       </c>
       <c r="AE19" t="n">
-        <v>273842.2785411498</v>
+        <v>315610.8301615097</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.57172581532531e-06</v>
+        <v>6.145087142857286e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.815972222222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>247707.1558173146</v>
+        <v>285489.3754935709</v>
       </c>
     </row>
     <row r="20">
@@ -16767,28 +16767,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>198.4233520271412</v>
+        <v>228.9504714971891</v>
       </c>
       <c r="AB20" t="n">
-        <v>271.4915840638875</v>
+        <v>313.2601356842474</v>
       </c>
       <c r="AC20" t="n">
-        <v>245.580808321741</v>
+        <v>283.3630279979974</v>
       </c>
       <c r="AD20" t="n">
-        <v>198423.3520271413</v>
+        <v>228950.4714971891</v>
       </c>
       <c r="AE20" t="n">
-        <v>271491.5840638875</v>
+        <v>313260.1356842474</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.581584793188863e-06</v>
+        <v>6.162049328994611e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.80078125</v>
       </c>
       <c r="AH20" t="n">
-        <v>245580.808321741</v>
+        <v>283363.0279979975</v>
       </c>
     </row>
     <row r="21">
@@ -16873,28 +16873,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>197.9875486073936</v>
+        <v>228.5146680774414</v>
       </c>
       <c r="AB21" t="n">
-        <v>270.8952985986991</v>
+        <v>312.6638502190589</v>
       </c>
       <c r="AC21" t="n">
-        <v>245.0414315044581</v>
+        <v>282.8236511807145</v>
       </c>
       <c r="AD21" t="n">
-        <v>197987.5486073936</v>
+        <v>228514.6680774414</v>
       </c>
       <c r="AE21" t="n">
-        <v>270895.2985986991</v>
+        <v>312663.8502190589</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.579000400933369e-06</v>
+        <v>6.157602930686769e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.802951388888889</v>
       </c>
       <c r="AH21" t="n">
-        <v>245041.4315044581</v>
+        <v>282823.6511807145</v>
       </c>
     </row>
     <row r="22">
@@ -16979,28 +16979,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>197.5328951739354</v>
+        <v>228.0600146439832</v>
       </c>
       <c r="AB22" t="n">
-        <v>270.273221713148</v>
+        <v>312.0417733335079</v>
       </c>
       <c r="AC22" t="n">
-        <v>244.4787247637734</v>
+        <v>282.2609444400298</v>
       </c>
       <c r="AD22" t="n">
-        <v>197532.8951739354</v>
+        <v>228060.0146439832</v>
       </c>
       <c r="AE22" t="n">
-        <v>270273.2217131479</v>
+        <v>312041.7733335079</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.579383273860109e-06</v>
+        <v>6.158261656362005e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.802951388888889</v>
       </c>
       <c r="AH22" t="n">
-        <v>244478.7247637734</v>
+        <v>282260.9444400298</v>
       </c>
     </row>
     <row r="23">
@@ -17085,28 +17085,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>198.1621989318126</v>
+        <v>228.6893184018604</v>
       </c>
       <c r="AB23" t="n">
-        <v>271.1342628775975</v>
+        <v>312.9028144979574</v>
       </c>
       <c r="AC23" t="n">
-        <v>245.257589367967</v>
+        <v>283.0398090442234</v>
       </c>
       <c r="AD23" t="n">
-        <v>198162.1989318126</v>
+        <v>228689.3184018604</v>
       </c>
       <c r="AE23" t="n">
-        <v>271134.2628775975</v>
+        <v>312902.8144979574</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.579000400933369e-06</v>
+        <v>6.157602930686769e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>5.802951388888889</v>
       </c>
       <c r="AH23" t="n">
-        <v>245257.589367967</v>
+        <v>283039.8090442234</v>
       </c>
     </row>
   </sheetData>
@@ -17382,28 +17382,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.6881942072006</v>
+        <v>192.0727552843136</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.7559440263431</v>
+        <v>262.8024174318001</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.1644995439</v>
+        <v>237.7209235576952</v>
       </c>
       <c r="AD2" t="n">
-        <v>157688.1942072005</v>
+        <v>192072.7552843136</v>
       </c>
       <c r="AE2" t="n">
-        <v>215755.9440263431</v>
+        <v>262802.4174318</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.698750232641693e-06</v>
+        <v>7.414738034339511e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.720920138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>195164.4995439</v>
+        <v>237720.9235576952</v>
       </c>
     </row>
     <row r="3">
@@ -17488,28 +17488,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.2078519492561</v>
+        <v>160.9750270519991</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.9973479863337</v>
+        <v>220.2531337294253</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.3414607399786</v>
+        <v>199.2324837735669</v>
       </c>
       <c r="AD3" t="n">
-        <v>135207.8519492561</v>
+        <v>160975.0270519991</v>
       </c>
       <c r="AE3" t="n">
-        <v>184997.3479863337</v>
+        <v>220253.1337294253</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.138627617922876e-06</v>
+        <v>8.296542799177807e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.006944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>167341.4607399786</v>
+        <v>199232.4837735669</v>
       </c>
     </row>
     <row r="4">
@@ -17594,28 +17594,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.3883430704201</v>
+        <v>150.2407695191836</v>
       </c>
       <c r="AB4" t="n">
-        <v>170.1936186152737</v>
+        <v>205.5660490110146</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.9505785229232</v>
+        <v>185.9471138072238</v>
       </c>
       <c r="AD4" t="n">
-        <v>124388.3430704201</v>
+        <v>150240.7695191836</v>
       </c>
       <c r="AE4" t="n">
-        <v>170193.6186152737</v>
+        <v>205566.0490110146</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.185822795718671e-06</v>
+        <v>8.391153102071917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.939670138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>153950.5785229232</v>
+        <v>185947.1138072238</v>
       </c>
     </row>
   </sheetData>
@@ -17891,28 +17891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>421.1227392376501</v>
+        <v>470.1939979592248</v>
       </c>
       <c r="AB2" t="n">
-        <v>576.1987104489955</v>
+        <v>643.3401715029999</v>
       </c>
       <c r="AC2" t="n">
-        <v>521.2071142237118</v>
+        <v>581.9406884683546</v>
       </c>
       <c r="AD2" t="n">
-        <v>421122.7392376501</v>
+        <v>470193.9979592248</v>
       </c>
       <c r="AE2" t="n">
-        <v>576198.7104489955</v>
+        <v>643340.1715029998</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.238752069745992e-06</v>
+        <v>3.964996270246036e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.646267361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>521207.1142237118</v>
+        <v>581940.6884683545</v>
       </c>
     </row>
     <row r="3">
@@ -17997,28 +17997,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.6511775942081</v>
+        <v>301.094022335704</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.6851255885354</v>
+        <v>411.9701246904863</v>
       </c>
       <c r="AC3" t="n">
-        <v>336.2120188657149</v>
+        <v>372.6522741937271</v>
       </c>
       <c r="AD3" t="n">
-        <v>271651.1775942082</v>
+        <v>301094.0223357041</v>
       </c>
       <c r="AE3" t="n">
-        <v>371685.1255885354</v>
+        <v>411970.1246904864</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.005701538632171e-06</v>
+        <v>5.32332076928085e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.185329861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>336212.0188657149</v>
+        <v>372652.2741937271</v>
       </c>
     </row>
     <row r="4">
@@ -18103,28 +18103,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>233.7714862074287</v>
+        <v>263.299582294948</v>
       </c>
       <c r="AB4" t="n">
-        <v>319.8564606989521</v>
+        <v>360.2581044537067</v>
       </c>
       <c r="AC4" t="n">
-        <v>289.3298090113012</v>
+        <v>325.8755765900694</v>
       </c>
       <c r="AD4" t="n">
-        <v>233771.4862074287</v>
+        <v>263299.582294948</v>
       </c>
       <c r="AE4" t="n">
-        <v>319856.4606989521</v>
+        <v>360258.1044537067</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.282945760809009e-06</v>
+        <v>5.814340887914688e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.577690972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>289329.8090113011</v>
+        <v>325875.5765900694</v>
       </c>
     </row>
     <row r="5">
@@ -18209,28 +18209,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>220.6753038009574</v>
+        <v>250.0328076878813</v>
       </c>
       <c r="AB5" t="n">
-        <v>301.9376861676358</v>
+        <v>342.1059181473684</v>
       </c>
       <c r="AC5" t="n">
-        <v>273.1211771720899</v>
+        <v>309.4558094681574</v>
       </c>
       <c r="AD5" t="n">
-        <v>220675.3038009574</v>
+        <v>250032.8076878813</v>
       </c>
       <c r="AE5" t="n">
-        <v>301937.6861676358</v>
+        <v>342105.9181473684</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.431718234661979e-06</v>
+        <v>6.077827993929616e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.293402777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>273121.1771720899</v>
+        <v>309455.8094681574</v>
       </c>
     </row>
     <row r="6">
@@ -18315,28 +18315,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>212.8966823440183</v>
+        <v>242.2541862309422</v>
       </c>
       <c r="AB6" t="n">
-        <v>291.2946331216979</v>
+        <v>331.4628651014306</v>
       </c>
       <c r="AC6" t="n">
-        <v>263.4938821712342</v>
+        <v>299.8285144673017</v>
       </c>
       <c r="AD6" t="n">
-        <v>212896.6823440183</v>
+        <v>242254.1862309422</v>
       </c>
       <c r="AE6" t="n">
-        <v>291294.6331216979</v>
+        <v>331462.8651014306</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.520583665532014e-06</v>
+        <v>6.235215275315121e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.134982638888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>263493.8821712342</v>
+        <v>299828.5144673017</v>
       </c>
     </row>
     <row r="7">
@@ -18421,28 +18421,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>207.8929089423058</v>
+        <v>237.2504128292297</v>
       </c>
       <c r="AB7" t="n">
-        <v>284.4482496025757</v>
+        <v>324.6164815823083</v>
       </c>
       <c r="AC7" t="n">
-        <v>257.3009078862152</v>
+        <v>293.6355401822826</v>
       </c>
       <c r="AD7" t="n">
-        <v>207892.9089423058</v>
+        <v>237250.4128292297</v>
       </c>
       <c r="AE7" t="n">
-        <v>284448.2496025757</v>
+        <v>324616.4815823083</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.575714067213984e-06</v>
+        <v>6.332855313263127e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.039496527777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>257300.9078862152</v>
+        <v>293635.5401822826</v>
       </c>
     </row>
     <row r="8">
@@ -18527,28 +18527,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>193.8803498505093</v>
+        <v>232.9666751186253</v>
       </c>
       <c r="AB8" t="n">
-        <v>265.2756480627119</v>
+        <v>318.7552826614925</v>
       </c>
       <c r="AC8" t="n">
-        <v>239.9581125283947</v>
+        <v>288.3337258602232</v>
       </c>
       <c r="AD8" t="n">
-        <v>193880.3498505093</v>
+        <v>232966.6751186253</v>
       </c>
       <c r="AE8" t="n">
-        <v>265275.6480627119</v>
+        <v>318755.2826614925</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.618803352283105e-06</v>
+        <v>6.409169638951731e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.967881944444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>239958.1125283946</v>
+        <v>288333.7258602232</v>
       </c>
     </row>
     <row r="9">
@@ -18633,28 +18633,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>189.9381152760378</v>
+        <v>219.3808705089822</v>
       </c>
       <c r="AB9" t="n">
-        <v>259.8817087988078</v>
+        <v>300.1665854311897</v>
       </c>
       <c r="AC9" t="n">
-        <v>235.0789632573945</v>
+        <v>271.5191078041742</v>
       </c>
       <c r="AD9" t="n">
-        <v>189938.1152760378</v>
+        <v>219380.8705089822</v>
       </c>
       <c r="AE9" t="n">
-        <v>259881.7087988078</v>
+        <v>300166.5854311897</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.654230108598594e-06</v>
+        <v>6.471913056838897e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.909288194444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>235078.9632573946</v>
+        <v>271519.1078041742</v>
       </c>
     </row>
     <row r="10">
@@ -18739,28 +18739,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>188.0345403597255</v>
+        <v>217.4772955926699</v>
       </c>
       <c r="AB10" t="n">
-        <v>257.2771536185123</v>
+        <v>297.5620302508942</v>
       </c>
       <c r="AC10" t="n">
-        <v>232.7229831679895</v>
+        <v>269.1631277147691</v>
       </c>
       <c r="AD10" t="n">
-        <v>188034.5403597255</v>
+        <v>217477.2955926699</v>
       </c>
       <c r="AE10" t="n">
-        <v>257277.1536185123</v>
+        <v>297562.0302508942</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.668261492420178e-06</v>
+        <v>6.496763680215556e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.887586805555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>232722.9831679895</v>
+        <v>269163.1277147691</v>
       </c>
     </row>
     <row r="11">
@@ -18845,28 +18845,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>184.4703210322964</v>
+        <v>213.9130762652409</v>
       </c>
       <c r="AB11" t="n">
-        <v>252.4004314924672</v>
+        <v>292.6853081248491</v>
       </c>
       <c r="AC11" t="n">
-        <v>228.3116885571301</v>
+        <v>264.7518331039097</v>
       </c>
       <c r="AD11" t="n">
-        <v>184470.3210322964</v>
+        <v>213913.0762652409</v>
       </c>
       <c r="AE11" t="n">
-        <v>252400.4314924672</v>
+        <v>292685.3081248492</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.697717447109463e-06</v>
+        <v>6.548932364750955e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.83984375</v>
       </c>
       <c r="AH11" t="n">
-        <v>228311.6885571301</v>
+        <v>264751.8331039097</v>
       </c>
     </row>
     <row r="12">
@@ -18951,28 +18951,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>181.6929570659434</v>
+        <v>211.1357122988878</v>
       </c>
       <c r="AB12" t="n">
-        <v>248.6003195850543</v>
+        <v>288.8851962174361</v>
       </c>
       <c r="AC12" t="n">
-        <v>224.8742539966689</v>
+        <v>261.3143985434485</v>
       </c>
       <c r="AD12" t="n">
-        <v>181692.9570659434</v>
+        <v>211135.7122988878</v>
       </c>
       <c r="AE12" t="n">
-        <v>248600.3195850543</v>
+        <v>288885.1962174362</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.716425958871574e-06</v>
+        <v>6.582066529253166e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.811631944444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>224874.2539966689</v>
+        <v>261314.3985434485</v>
       </c>
     </row>
     <row r="13">
@@ -19057,28 +19057,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>180.0684282356848</v>
+        <v>209.5111834686292</v>
       </c>
       <c r="AB13" t="n">
-        <v>246.3775675703418</v>
+        <v>286.6624442027237</v>
       </c>
       <c r="AC13" t="n">
-        <v>222.8636383145878</v>
+        <v>259.3037828613674</v>
       </c>
       <c r="AD13" t="n">
-        <v>180068.4282356848</v>
+        <v>209511.1834686292</v>
       </c>
       <c r="AE13" t="n">
-        <v>246377.5675703418</v>
+        <v>286662.4442027237</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.724188000985643e-06</v>
+        <v>6.595813682610466e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.798611111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>222863.6383145878</v>
+        <v>259303.7828613675</v>
       </c>
     </row>
     <row r="14">
@@ -19163,28 +19163,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>178.0384940223149</v>
+        <v>207.4812492552593</v>
       </c>
       <c r="AB14" t="n">
-        <v>243.6001220252334</v>
+        <v>283.8849986576153</v>
       </c>
       <c r="AC14" t="n">
-        <v>220.3512682741344</v>
+        <v>256.791412820914</v>
       </c>
       <c r="AD14" t="n">
-        <v>178038.4940223149</v>
+        <v>207481.2492552593</v>
       </c>
       <c r="AE14" t="n">
-        <v>243600.1220252334</v>
+        <v>283884.9986576153</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.732945176704078e-06</v>
+        <v>6.611323291526395e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.785590277777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>220351.2682741343</v>
+        <v>256791.412820914</v>
       </c>
     </row>
     <row r="15">
@@ -19269,28 +19269,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>177.2248641268</v>
+        <v>206.6676193597445</v>
       </c>
       <c r="AB15" t="n">
-        <v>242.4868777073729</v>
+        <v>282.7717543397548</v>
       </c>
       <c r="AC15" t="n">
-        <v>219.3442704315219</v>
+        <v>255.7844149783016</v>
       </c>
       <c r="AD15" t="n">
-        <v>177224.8641268</v>
+        <v>206667.6193597445</v>
       </c>
       <c r="AE15" t="n">
-        <v>242486.8777073729</v>
+        <v>282771.7543397548</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.742199919224698e-06</v>
+        <v>6.627714128221638e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.770399305555555</v>
       </c>
       <c r="AH15" t="n">
-        <v>219344.2704315219</v>
+        <v>255784.4149783016</v>
       </c>
     </row>
   </sheetData>
@@ -19566,28 +19566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>502.4622045211407</v>
+        <v>552.3879116442483</v>
       </c>
       <c r="AB2" t="n">
-        <v>687.4909552938158</v>
+        <v>755.8015103464005</v>
       </c>
       <c r="AC2" t="n">
-        <v>621.8777834201894</v>
+        <v>683.6688749730215</v>
       </c>
       <c r="AD2" t="n">
-        <v>502462.2045211407</v>
+        <v>552387.9116442483</v>
       </c>
       <c r="AE2" t="n">
-        <v>687490.9552938158</v>
+        <v>755801.5103464006</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.025825383719726e-06</v>
+        <v>3.532862575746527e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.44487847222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>621877.7834201894</v>
+        <v>683668.8749730214</v>
       </c>
     </row>
     <row r="3">
@@ -19672,28 +19672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.4128464003853</v>
+        <v>338.2510209750956</v>
       </c>
       <c r="AB3" t="n">
-        <v>408.301621490649</v>
+        <v>462.8099694799892</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.3338877905055</v>
+        <v>418.6400355506901</v>
       </c>
       <c r="AD3" t="n">
-        <v>298412.8464003853</v>
+        <v>338251.0209750956</v>
       </c>
       <c r="AE3" t="n">
-        <v>408301.621490649</v>
+        <v>462809.9694799892</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.843097769836044e-06</v>
+        <v>4.958114253558887e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.443576388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>369333.8877905055</v>
+        <v>418640.0355506901</v>
       </c>
     </row>
     <row r="4">
@@ -19778,28 +19778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>253.9320589840869</v>
+        <v>293.855484904821</v>
       </c>
       <c r="AB4" t="n">
-        <v>347.4410457936607</v>
+        <v>402.0660384358187</v>
       </c>
       <c r="AC4" t="n">
-        <v>314.2817600197878</v>
+        <v>363.6934200307325</v>
       </c>
       <c r="AD4" t="n">
-        <v>253932.0589840869</v>
+        <v>293855.484904821</v>
       </c>
       <c r="AE4" t="n">
-        <v>347441.0457936607</v>
+        <v>402066.0384358187</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.141360264363582e-06</v>
+        <v>5.478257999971201e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.736111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>314281.7600197878</v>
+        <v>363693.4200307325</v>
       </c>
     </row>
     <row r="5">
@@ -19884,28 +19884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>239.0642792500955</v>
+        <v>268.9856029855549</v>
       </c>
       <c r="AB5" t="n">
-        <v>327.0982936414746</v>
+        <v>368.0379688121237</v>
       </c>
       <c r="AC5" t="n">
-        <v>295.8804915817678</v>
+        <v>332.9129416132272</v>
       </c>
       <c r="AD5" t="n">
-        <v>239064.2792500955</v>
+        <v>268985.6029855548</v>
       </c>
       <c r="AE5" t="n">
-        <v>327098.2936414746</v>
+        <v>368037.9688121237</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.294440393951105e-06</v>
+        <v>5.745216379136721e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.423611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>295880.4915817679</v>
+        <v>332912.9416132272</v>
       </c>
     </row>
     <row r="6">
@@ -19990,28 +19990,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>230.3534455315328</v>
+        <v>260.274769266992</v>
       </c>
       <c r="AB6" t="n">
-        <v>315.1797466528815</v>
+        <v>356.1194218235245</v>
       </c>
       <c r="AC6" t="n">
-        <v>285.0994339899766</v>
+        <v>322.1318840214342</v>
       </c>
       <c r="AD6" t="n">
-        <v>230353.4455315328</v>
+        <v>260274.769266992</v>
       </c>
       <c r="AE6" t="n">
-        <v>315179.7466528815</v>
+        <v>356119.4218235245</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.387653517445164e-06</v>
+        <v>5.907771927214582e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.245659722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>285099.4339899766</v>
+        <v>322131.8840214342</v>
       </c>
     </row>
     <row r="7">
@@ -20096,28 +20096,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>224.656031870456</v>
+        <v>254.5773556059119</v>
       </c>
       <c r="AB7" t="n">
-        <v>307.3842939296489</v>
+        <v>348.323969100119</v>
       </c>
       <c r="AC7" t="n">
-        <v>278.0479683336603</v>
+        <v>315.0804183650686</v>
       </c>
       <c r="AD7" t="n">
-        <v>224656.031870456</v>
+        <v>254577.3556059119</v>
       </c>
       <c r="AE7" t="n">
-        <v>307384.2939296489</v>
+        <v>348323.969100119</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.446155477797083e-06</v>
+        <v>6.009794237723697e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.139322916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>278047.9683336603</v>
+        <v>315080.4183650686</v>
       </c>
     </row>
     <row r="8">
@@ -20202,28 +20202,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>220.3052282560214</v>
+        <v>250.2265519914774</v>
       </c>
       <c r="AB8" t="n">
-        <v>301.4313324804738</v>
+        <v>342.371007650944</v>
       </c>
       <c r="AC8" t="n">
-        <v>272.6631491701586</v>
+        <v>309.6955992015671</v>
       </c>
       <c r="AD8" t="n">
-        <v>220305.2282560214</v>
+        <v>250226.5519914774</v>
       </c>
       <c r="AE8" t="n">
-        <v>301431.3324804739</v>
+        <v>342371.0076509439</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.493347059147632e-06</v>
+        <v>6.092092234867719e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.056857638888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>272663.1491701587</v>
+        <v>309695.5992015671</v>
       </c>
     </row>
     <row r="9">
@@ -20308,28 +20308,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>206.5682496264621</v>
+        <v>246.4063346926209</v>
       </c>
       <c r="AB9" t="n">
-        <v>282.6357922867948</v>
+        <v>337.1440178065586</v>
       </c>
       <c r="AC9" t="n">
-        <v>255.661428952852</v>
+        <v>304.9674659318019</v>
       </c>
       <c r="AD9" t="n">
-        <v>206568.2496264621</v>
+        <v>246406.3346926209</v>
       </c>
       <c r="AE9" t="n">
-        <v>282635.7922867947</v>
+        <v>337144.0178065586</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.529033254962303e-06</v>
+        <v>6.15432584427828e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.99609375</v>
       </c>
       <c r="AH9" t="n">
-        <v>255661.428952852</v>
+        <v>304967.4659318019</v>
       </c>
     </row>
     <row r="10">
@@ -20414,28 +20414,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>203.5891987276996</v>
+        <v>243.4272837938584</v>
       </c>
       <c r="AB10" t="n">
-        <v>278.5597234206599</v>
+        <v>333.0679489404238</v>
       </c>
       <c r="AC10" t="n">
-        <v>251.9743743785012</v>
+        <v>301.2804113574511</v>
       </c>
       <c r="AD10" t="n">
-        <v>203589.1987276996</v>
+        <v>243427.2837938584</v>
       </c>
       <c r="AE10" t="n">
-        <v>278559.7234206599</v>
+        <v>333067.9489404238</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.554384104448134e-06</v>
+        <v>6.198535512165563e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.952690972222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>251974.3743785012</v>
+        <v>301280.4113574511</v>
       </c>
     </row>
     <row r="11">
@@ -20520,28 +20520,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>200.1055765602883</v>
+        <v>230.1121516417649</v>
       </c>
       <c r="AB11" t="n">
-        <v>273.7932778846468</v>
+        <v>314.8495977077661</v>
       </c>
       <c r="AC11" t="n">
-        <v>247.6628317146953</v>
+        <v>284.800793996816</v>
       </c>
       <c r="AD11" t="n">
-        <v>200105.5765602883</v>
+        <v>230112.1516417649</v>
       </c>
       <c r="AE11" t="n">
-        <v>273793.2778846468</v>
+        <v>314849.5977077661</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.583927594425854e-06</v>
+        <v>6.250056778972667e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.904947916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>247662.8317146953</v>
+        <v>284800.793996816</v>
       </c>
     </row>
     <row r="12">
@@ -20626,28 +20626,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>197.5740691722664</v>
+        <v>227.5806442537429</v>
       </c>
       <c r="AB12" t="n">
-        <v>270.3295577941331</v>
+        <v>311.3858776172524</v>
       </c>
       <c r="AC12" t="n">
-        <v>244.5296842082575</v>
+        <v>281.6676464903781</v>
       </c>
       <c r="AD12" t="n">
-        <v>197574.0691722664</v>
+        <v>227580.6442537429</v>
       </c>
       <c r="AE12" t="n">
-        <v>270329.5577941331</v>
+        <v>311385.8776172524</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.602063202134949e-06</v>
+        <v>6.281683695230494e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.874565972222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>244529.6842082575</v>
+        <v>281667.6464903781</v>
       </c>
     </row>
     <row r="13">
@@ -20732,28 +20732,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>195.9793141535006</v>
+        <v>225.9858892349771</v>
       </c>
       <c r="AB13" t="n">
-        <v>268.1475436218328</v>
+        <v>309.203863444952</v>
       </c>
       <c r="AC13" t="n">
-        <v>242.5559184060847</v>
+        <v>279.6938806882053</v>
       </c>
       <c r="AD13" t="n">
-        <v>195979.3141535005</v>
+        <v>225985.8892349771</v>
       </c>
       <c r="AE13" t="n">
-        <v>268147.5436218328</v>
+        <v>309203.8634449521</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.610448483118724e-06</v>
+        <v>6.296306893070133e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.861545138888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>242555.9184060847</v>
+        <v>279693.8806882053</v>
       </c>
     </row>
     <row r="14">
@@ -20838,28 +20838,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>193.2571663152935</v>
+        <v>223.26374139677</v>
       </c>
       <c r="AB14" t="n">
-        <v>264.4229808569128</v>
+        <v>305.4793006800321</v>
       </c>
       <c r="AC14" t="n">
-        <v>239.1868226839908</v>
+        <v>276.3247849661115</v>
       </c>
       <c r="AD14" t="n">
-        <v>193257.1663152935</v>
+        <v>223263.74139677</v>
       </c>
       <c r="AE14" t="n">
-        <v>264422.9808569128</v>
+        <v>305479.3006800321</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.630241646371124e-06</v>
+        <v>6.330824441459052e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.828993055555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>239186.8226839908</v>
+        <v>276324.7849661115</v>
       </c>
     </row>
     <row r="15">
@@ -20944,28 +20944,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>191.5138291500701</v>
+        <v>221.5204042315467</v>
       </c>
       <c r="AB15" t="n">
-        <v>262.0376700368478</v>
+        <v>303.0939898599671</v>
       </c>
       <c r="AC15" t="n">
-        <v>237.0291625807873</v>
+        <v>274.1671248629079</v>
       </c>
       <c r="AD15" t="n">
-        <v>191513.8291500701</v>
+        <v>221520.4042315467</v>
       </c>
       <c r="AE15" t="n">
-        <v>262037.6700368478</v>
+        <v>303093.9898599671</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.639796966561937e-06</v>
+        <v>6.347488085508874e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.813802083333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>237029.1625807873</v>
+        <v>274167.1248629079</v>
       </c>
     </row>
     <row r="16">
@@ -21050,28 +21050,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>189.9141131625096</v>
+        <v>219.9206882439862</v>
       </c>
       <c r="AB16" t="n">
-        <v>259.8488680481802</v>
+        <v>300.9051878712995</v>
       </c>
       <c r="AC16" t="n">
-        <v>235.0492567819145</v>
+        <v>272.1872190640351</v>
       </c>
       <c r="AD16" t="n">
-        <v>189914.1131625096</v>
+        <v>219920.6882439862</v>
       </c>
       <c r="AE16" t="n">
-        <v>259848.8680481802</v>
+        <v>300905.1878712995</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.647889737743953e-06</v>
+        <v>6.361601171795968e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.80078125</v>
       </c>
       <c r="AH16" t="n">
-        <v>235049.2567819145</v>
+        <v>272187.2190640351</v>
       </c>
     </row>
     <row r="17">
@@ -21156,28 +21156,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>187.8414633890783</v>
+        <v>217.8480384705549</v>
       </c>
       <c r="AB17" t="n">
-        <v>257.0129771893182</v>
+        <v>298.0692970124375</v>
       </c>
       <c r="AC17" t="n">
-        <v>232.4840193664236</v>
+        <v>269.6219816485442</v>
       </c>
       <c r="AD17" t="n">
-        <v>187841.4633890783</v>
+        <v>217848.0384705549</v>
       </c>
       <c r="AE17" t="n">
-        <v>257012.9771893182</v>
+        <v>298069.2970124375</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.656762535063994e-06</v>
+        <v>6.377074555556517e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.785590277777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>232484.0193664236</v>
+        <v>269621.9816485443</v>
       </c>
     </row>
     <row r="18">
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>187.6829600867851</v>
+        <v>217.6895351682616</v>
       </c>
       <c r="AB18" t="n">
-        <v>256.7961059784485</v>
+        <v>297.8524258015678</v>
       </c>
       <c r="AC18" t="n">
-        <v>232.2878460395386</v>
+        <v>269.4258083216593</v>
       </c>
       <c r="AD18" t="n">
-        <v>187682.9600867851</v>
+        <v>217689.5351682616</v>
       </c>
       <c r="AE18" t="n">
-        <v>256796.1059784485</v>
+        <v>297852.4258015678</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.655299986055196e-06</v>
+        <v>6.37452399779379e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.787760416666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>232287.8460395386</v>
+        <v>269425.8083216593</v>
       </c>
     </row>
     <row r="19">
@@ -21368,28 +21368,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>188.1254719890812</v>
+        <v>218.1320470705577</v>
       </c>
       <c r="AB19" t="n">
-        <v>257.4015702854172</v>
+        <v>298.4578901085364</v>
       </c>
       <c r="AC19" t="n">
-        <v>232.8355256828249</v>
+        <v>269.9734879649455</v>
       </c>
       <c r="AD19" t="n">
-        <v>188125.4719890812</v>
+        <v>218132.0470705577</v>
       </c>
       <c r="AE19" t="n">
-        <v>257401.5702854171</v>
+        <v>298457.8901085365</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.657152548133007e-06</v>
+        <v>6.377754704293245e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.785590277777778</v>
       </c>
       <c r="AH19" t="n">
-        <v>232835.5256828248</v>
+        <v>269973.4879649455</v>
       </c>
     </row>
   </sheetData>
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>706.5071333651219</v>
+        <v>768.4464339621975</v>
       </c>
       <c r="AB2" t="n">
-        <v>966.6742287650943</v>
+        <v>1051.4223124111</v>
       </c>
       <c r="AC2" t="n">
-        <v>874.4161971075541</v>
+        <v>951.0760425950679</v>
       </c>
       <c r="AD2" t="n">
-        <v>706507.1333651219</v>
+        <v>768446.4339621975</v>
       </c>
       <c r="AE2" t="n">
-        <v>966674.2287650943</v>
+        <v>1051422.3124111</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.657225340088614e-06</v>
+        <v>2.817173243256307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.32421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>874416.1971075542</v>
+        <v>951076.0425950679</v>
       </c>
     </row>
     <row r="3">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>369.2767513150683</v>
+        <v>410.5412012644452</v>
       </c>
       <c r="AB3" t="n">
-        <v>505.2607424897605</v>
+        <v>561.7205833695481</v>
       </c>
       <c r="AC3" t="n">
-        <v>457.0393663644429</v>
+        <v>508.1107592725479</v>
       </c>
       <c r="AD3" t="n">
-        <v>369276.7513150683</v>
+        <v>410541.2012644452</v>
       </c>
       <c r="AE3" t="n">
-        <v>505260.7424897605</v>
+        <v>561720.5833695481</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.538305675934466e-06</v>
+        <v>4.314951419380196e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>457039.3663644429</v>
+        <v>508110.7592725479</v>
       </c>
     </row>
     <row r="4">
@@ -21877,28 +21877,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.5773128235946</v>
+        <v>339.5896783036937</v>
       </c>
       <c r="AB4" t="n">
-        <v>422.2090928754945</v>
+        <v>464.6415794943706</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.9140496256401</v>
+        <v>420.2968392759797</v>
       </c>
       <c r="AD4" t="n">
-        <v>308577.3128235947</v>
+        <v>339589.6783036938</v>
       </c>
       <c r="AE4" t="n">
-        <v>422209.0928754946</v>
+        <v>464641.5794943706</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.866757969472388e-06</v>
+        <v>4.873298549766051e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.124565972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>381914.0496256401</v>
+        <v>420296.8392759797</v>
       </c>
     </row>
     <row r="5">
@@ -21983,28 +21983,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>276.8768549552842</v>
+        <v>318.1412153961099</v>
       </c>
       <c r="AB5" t="n">
-        <v>378.8351278945739</v>
+        <v>435.2948463048132</v>
       </c>
       <c r="AC5" t="n">
-        <v>342.6796349867564</v>
+        <v>393.7509171136349</v>
       </c>
       <c r="AD5" t="n">
-        <v>276876.8549552842</v>
+        <v>318141.21539611</v>
       </c>
       <c r="AE5" t="n">
-        <v>378835.1278945739</v>
+        <v>435294.8463048132</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.041901155224272e-06</v>
+        <v>5.171030357688136e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.714409722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>342679.6349867564</v>
+        <v>393750.9171136349</v>
       </c>
     </row>
     <row r="6">
@@ -22089,28 +22089,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>265.0102682887921</v>
+        <v>295.9372929143196</v>
       </c>
       <c r="AB6" t="n">
-        <v>362.5987405006237</v>
+        <v>404.9144599973021</v>
       </c>
       <c r="AC6" t="n">
-        <v>327.9928256177719</v>
+        <v>366.2699922361726</v>
       </c>
       <c r="AD6" t="n">
-        <v>265010.2682887921</v>
+        <v>295937.2929143196</v>
       </c>
       <c r="AE6" t="n">
-        <v>362598.7405006237</v>
+        <v>404914.4599973021</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.150130421003243e-06</v>
+        <v>5.355012936468574e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>327992.8256177719</v>
+        <v>366269.9922361727</v>
       </c>
     </row>
     <row r="7">
@@ -22195,28 +22195,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>257.2623568665722</v>
+        <v>288.189381492103</v>
       </c>
       <c r="AB7" t="n">
-        <v>351.9977062788482</v>
+        <v>394.3134257756974</v>
       </c>
       <c r="AC7" t="n">
-        <v>318.4035392235837</v>
+        <v>356.6807058420329</v>
       </c>
       <c r="AD7" t="n">
-        <v>257262.3568665722</v>
+        <v>288189.381492103</v>
       </c>
       <c r="AE7" t="n">
-        <v>351997.7062788482</v>
+        <v>394313.4257756974</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.222879310087717e-06</v>
+        <v>5.478681226379253e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.336805555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>318403.5392235836</v>
+        <v>356680.7058420329</v>
       </c>
     </row>
     <row r="8">
@@ -22301,28 +22301,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>250.8182159558126</v>
+        <v>281.7452405813432</v>
       </c>
       <c r="AB8" t="n">
-        <v>343.1805483893189</v>
+        <v>385.4962678861635</v>
       </c>
       <c r="AC8" t="n">
-        <v>310.4278785080693</v>
+        <v>348.7050451265173</v>
       </c>
       <c r="AD8" t="n">
-        <v>250818.2159558126</v>
+        <v>281745.2405813432</v>
       </c>
       <c r="AE8" t="n">
-        <v>343180.5483893189</v>
+        <v>385496.2678861635</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.284146485759116e-06</v>
+        <v>5.582831364454091e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.219618055555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>310427.8785080693</v>
+        <v>348705.0451265174</v>
       </c>
     </row>
     <row r="9">
@@ -22407,28 +22407,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>246.9706291327594</v>
+        <v>277.89765375829</v>
       </c>
       <c r="AB9" t="n">
-        <v>337.9161103544694</v>
+        <v>380.2318298513113</v>
       </c>
       <c r="AC9" t="n">
-        <v>305.665871050579</v>
+        <v>343.9430376690263</v>
       </c>
       <c r="AD9" t="n">
-        <v>246970.6291327594</v>
+        <v>277897.65375829</v>
       </c>
       <c r="AE9" t="n">
-        <v>337916.1103544694</v>
+        <v>380231.8298513113</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.319438637643564e-06</v>
+        <v>5.642825683621626e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.15234375</v>
       </c>
       <c r="AH9" t="n">
-        <v>305665.871050579</v>
+        <v>343943.0376690263</v>
       </c>
     </row>
     <row r="10">
@@ -22513,28 +22513,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>243.3975823492804</v>
+        <v>274.3246069748109</v>
       </c>
       <c r="AB10" t="n">
-        <v>333.0273101136169</v>
+        <v>375.3430296104563</v>
       </c>
       <c r="AC10" t="n">
-        <v>301.2436510432378</v>
+        <v>339.5208176616842</v>
       </c>
       <c r="AD10" t="n">
-        <v>243397.5823492804</v>
+        <v>274324.6069748109</v>
       </c>
       <c r="AE10" t="n">
-        <v>333027.3101136169</v>
+        <v>375343.0296104563</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.35397789028781e-06</v>
+        <v>5.701540123980254e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.089409722222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>301243.6510432378</v>
+        <v>339520.8176616842</v>
       </c>
     </row>
     <row r="11">
@@ -22619,28 +22619,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>240.381966178084</v>
+        <v>271.3089908036145</v>
       </c>
       <c r="AB11" t="n">
-        <v>328.9012110285921</v>
+        <v>371.2169305254293</v>
       </c>
       <c r="AC11" t="n">
-        <v>297.5113410638699</v>
+        <v>335.7885076823158</v>
       </c>
       <c r="AD11" t="n">
-        <v>240381.966178084</v>
+        <v>271308.9908036145</v>
       </c>
       <c r="AE11" t="n">
-        <v>328901.2110285921</v>
+        <v>371216.9305254294</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.380141138884814e-06</v>
+        <v>5.746015912589786e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>297511.3410638699</v>
+        <v>335788.5076823158</v>
       </c>
     </row>
     <row r="12">
@@ -22725,28 +22725,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>238.0429464681041</v>
+        <v>268.9699710936346</v>
       </c>
       <c r="AB12" t="n">
-        <v>325.7008610711322</v>
+        <v>368.0165805679679</v>
       </c>
       <c r="AC12" t="n">
-        <v>294.6164280146297</v>
+        <v>332.8935946330752</v>
       </c>
       <c r="AD12" t="n">
-        <v>238042.9464681041</v>
+        <v>268969.9710936346</v>
       </c>
       <c r="AE12" t="n">
-        <v>325700.8610711322</v>
+        <v>368016.580567968</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.399340069509953e-06</v>
+        <v>5.778652822216925e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.009114583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>294616.4280146297</v>
+        <v>332893.5946330752</v>
       </c>
     </row>
     <row r="13">
@@ -22831,28 +22831,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>225.3157985512863</v>
+        <v>266.4948181375433</v>
       </c>
       <c r="AB13" t="n">
-        <v>308.2870158092122</v>
+        <v>364.6299670974021</v>
       </c>
       <c r="AC13" t="n">
-        <v>278.8645357040165</v>
+        <v>329.8301947989983</v>
       </c>
       <c r="AD13" t="n">
-        <v>225315.7985512863</v>
+        <v>266494.8181375433</v>
       </c>
       <c r="AE13" t="n">
-        <v>308287.0158092122</v>
+        <v>364629.9670974021</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.418444887730067e-06</v>
+        <v>5.811129746992951e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.974392361111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>278864.5357040165</v>
+        <v>329830.1947989983</v>
       </c>
     </row>
     <row r="14">
@@ -22937,28 +22937,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>222.7515199256167</v>
+        <v>263.9305395118736</v>
       </c>
       <c r="AB14" t="n">
-        <v>304.7784566655841</v>
+        <v>361.1214079537721</v>
       </c>
       <c r="AC14" t="n">
-        <v>275.6908285207613</v>
+        <v>326.6564876157427</v>
       </c>
       <c r="AD14" t="n">
-        <v>222751.5199256167</v>
+        <v>263930.5395118736</v>
       </c>
       <c r="AE14" t="n">
-        <v>304778.4566655841</v>
+        <v>361121.4079537721</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.436702694304954e-06</v>
+        <v>5.842166808108955e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.941840277777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>275690.8285207613</v>
+        <v>326656.4876157427</v>
       </c>
     </row>
     <row r="15">
@@ -23043,28 +23043,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>221.3752569764001</v>
+        <v>252.3875329479477</v>
       </c>
       <c r="AB15" t="n">
-        <v>302.8953929820306</v>
+        <v>345.3277571313365</v>
       </c>
       <c r="AC15" t="n">
-        <v>273.9874817922692</v>
+        <v>312.370160661376</v>
       </c>
       <c r="AD15" t="n">
-        <v>221375.2569764001</v>
+        <v>252387.5329479477</v>
       </c>
       <c r="AE15" t="n">
-        <v>302895.3929820306</v>
+        <v>345327.7571313365</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.446208047212498e-06</v>
+        <v>5.85832527807141e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.926649305555555</v>
       </c>
       <c r="AH15" t="n">
-        <v>273987.4817922692</v>
+        <v>312370.160661376</v>
       </c>
     </row>
     <row r="16">
@@ -23149,28 +23149,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>219.8075640526865</v>
+        <v>250.8198400242342</v>
       </c>
       <c r="AB16" t="n">
-        <v>300.7504063620762</v>
+        <v>343.1827705113821</v>
       </c>
       <c r="AC16" t="n">
-        <v>272.0472096848149</v>
+        <v>310.4298885539216</v>
       </c>
       <c r="AD16" t="n">
-        <v>219807.5640526865</v>
+        <v>250819.8400242342</v>
       </c>
       <c r="AE16" t="n">
-        <v>300750.4063620762</v>
+        <v>343182.7705113821</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.455525175309992e-06</v>
+        <v>5.874163778331639e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.911458333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>272047.2096848149</v>
+        <v>310429.8885539216</v>
       </c>
     </row>
     <row r="17">
@@ -23255,28 +23255,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>218.3330575600578</v>
+        <v>249.3453335316055</v>
       </c>
       <c r="AB17" t="n">
-        <v>298.7329215282273</v>
+        <v>341.1652856775331</v>
       </c>
       <c r="AC17" t="n">
-        <v>270.2222707719501</v>
+        <v>308.6049496410568</v>
       </c>
       <c r="AD17" t="n">
-        <v>218333.0575600578</v>
+        <v>249345.3335316055</v>
       </c>
       <c r="AE17" t="n">
-        <v>298732.9215282273</v>
+        <v>341165.2856775331</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.463336504927083e-06</v>
+        <v>5.887442520974054e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.896267361111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>270222.2707719501</v>
+        <v>308604.9496410568</v>
       </c>
     </row>
     <row r="18">
@@ -23361,28 +23361,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>216.9043351908393</v>
+        <v>247.916611162387</v>
       </c>
       <c r="AB18" t="n">
-        <v>296.778080551881</v>
+        <v>339.2104447011869</v>
       </c>
       <c r="AC18" t="n">
-        <v>268.4539970747492</v>
+        <v>306.8366759438559</v>
       </c>
       <c r="AD18" t="n">
-        <v>216904.3351908393</v>
+        <v>247916.611162387</v>
       </c>
       <c r="AE18" t="n">
-        <v>296778.080551881</v>
+        <v>339210.4447011869</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.473124195049704e-06</v>
+        <v>5.90408094548985e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.881076388888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>268453.9970747492</v>
+        <v>306836.6759438559</v>
       </c>
     </row>
     <row r="19">
@@ -23467,28 +23467,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>215.1711502063071</v>
+        <v>246.1834261778548</v>
       </c>
       <c r="AB19" t="n">
-        <v>294.4066603933202</v>
+        <v>336.8390245426261</v>
       </c>
       <c r="AC19" t="n">
-        <v>266.3089019278116</v>
+        <v>304.6915807969183</v>
       </c>
       <c r="AD19" t="n">
-        <v>215171.1502063071</v>
+        <v>246183.4261778548</v>
       </c>
       <c r="AE19" t="n">
-        <v>294406.6603933203</v>
+        <v>336839.0245426261</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.483853009222576e-06</v>
+        <v>5.922319218516781e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.861545138888889</v>
       </c>
       <c r="AH19" t="n">
-        <v>266308.9019278116</v>
+        <v>304691.5807969183</v>
       </c>
     </row>
     <row r="20">
@@ -23573,28 +23573,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>213.111835765233</v>
+        <v>244.1241117367806</v>
       </c>
       <c r="AB20" t="n">
-        <v>291.5890155245027</v>
+        <v>334.0213796738086</v>
       </c>
       <c r="AC20" t="n">
-        <v>263.7601691306838</v>
+        <v>302.1428479997905</v>
       </c>
       <c r="AD20" t="n">
-        <v>213111.835765233</v>
+        <v>244124.1117367806</v>
       </c>
       <c r="AE20" t="n">
-        <v>291589.0155245027</v>
+        <v>334021.3796738086</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.494393598585397e-06</v>
+        <v>5.940237521841485e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.844184027777778</v>
       </c>
       <c r="AH20" t="n">
-        <v>263760.1691306838</v>
+        <v>302142.8479997905</v>
       </c>
     </row>
     <row r="21">
@@ -23679,28 +23679,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>212.3323697706799</v>
+        <v>243.3446457422276</v>
       </c>
       <c r="AB21" t="n">
-        <v>290.5225157631431</v>
+        <v>332.954879912449</v>
       </c>
       <c r="AC21" t="n">
-        <v>262.795454609706</v>
+        <v>301.1781334788128</v>
       </c>
       <c r="AD21" t="n">
-        <v>212332.3697706799</v>
+        <v>243344.6457422276</v>
       </c>
       <c r="AE21" t="n">
-        <v>290522.5157631431</v>
+        <v>332954.879912449</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.494111261370321e-06</v>
+        <v>5.939757567288144e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.844184027777778</v>
       </c>
       <c r="AH21" t="n">
-        <v>262795.4546097061</v>
+        <v>301178.1334788128</v>
       </c>
     </row>
     <row r="22">
@@ -23785,28 +23785,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>210.9250652816668</v>
+        <v>241.9373412532145</v>
       </c>
       <c r="AB22" t="n">
-        <v>288.596979675384</v>
+        <v>331.0293438246899</v>
       </c>
       <c r="AC22" t="n">
-        <v>261.0536889836553</v>
+        <v>299.436367852762</v>
       </c>
       <c r="AD22" t="n">
-        <v>210925.0652816668</v>
+        <v>241937.3412532145</v>
       </c>
       <c r="AE22" t="n">
-        <v>288596.979675384</v>
+        <v>331029.3438246899</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.504087176302992e-06</v>
+        <v>5.956715961506167e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.828993055555555</v>
       </c>
       <c r="AH22" t="n">
-        <v>261053.6889836553</v>
+        <v>299436.367852762</v>
       </c>
     </row>
     <row r="23">
@@ -23891,28 +23891,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>209.6574723609571</v>
+        <v>240.6697483325048</v>
       </c>
       <c r="AB23" t="n">
-        <v>286.8626031190171</v>
+        <v>329.294967268323</v>
       </c>
       <c r="AC23" t="n">
-        <v>259.4848388916147</v>
+        <v>297.8675177607214</v>
       </c>
       <c r="AD23" t="n">
-        <v>209657.4723609572</v>
+        <v>240669.7483325048</v>
       </c>
       <c r="AE23" t="n">
-        <v>286862.6031190171</v>
+        <v>329294.967268323</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.502487265417563e-06</v>
+        <v>5.953996219037238e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>5.831163194444445</v>
       </c>
       <c r="AH23" t="n">
-        <v>259484.8388916147</v>
+        <v>297867.5177607214</v>
       </c>
     </row>
     <row r="24">
@@ -23997,28 +23997,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>207.9017503411625</v>
+        <v>238.9140263127101</v>
       </c>
       <c r="AB24" t="n">
-        <v>284.4603467945464</v>
+        <v>326.8927109438523</v>
       </c>
       <c r="AC24" t="n">
-        <v>257.3118505391628</v>
+        <v>295.6945294082694</v>
       </c>
       <c r="AD24" t="n">
-        <v>207901.7503411625</v>
+        <v>238914.0263127101</v>
       </c>
       <c r="AE24" t="n">
-        <v>284460.3467945463</v>
+        <v>326892.7109438523</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.513592529210536e-06</v>
+        <v>5.972874431468622e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>5.813802083333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>257311.8505391628</v>
+        <v>295694.5294082694</v>
       </c>
     </row>
     <row r="25">
@@ -24103,28 +24103,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>207.0672348204437</v>
+        <v>238.0795107919914</v>
       </c>
       <c r="AB25" t="n">
-        <v>283.3185258428731</v>
+        <v>325.7508899921789</v>
       </c>
       <c r="AC25" t="n">
-        <v>256.279003376561</v>
+        <v>294.6616822456677</v>
       </c>
       <c r="AD25" t="n">
-        <v>207067.2348204437</v>
+        <v>238079.5107919914</v>
       </c>
       <c r="AE25" t="n">
-        <v>283318.5258428731</v>
+        <v>325750.8899921789</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.513404304400486e-06</v>
+        <v>5.972554461766396e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>5.813802083333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>256279.003376561</v>
+        <v>294661.6822456677</v>
       </c>
     </row>
     <row r="26">
@@ -24209,28 +24209,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>207.4917276181888</v>
+        <v>238.5040035897365</v>
       </c>
       <c r="AB26" t="n">
-        <v>283.8993356160482</v>
+        <v>326.3316997653541</v>
       </c>
       <c r="AC26" t="n">
-        <v>256.8043814801561</v>
+        <v>295.1870603492628</v>
       </c>
       <c r="AD26" t="n">
-        <v>207491.7276181888</v>
+        <v>238504.0035897365</v>
       </c>
       <c r="AE26" t="n">
-        <v>283899.3356160482</v>
+        <v>326331.699765354</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.510486819844705e-06</v>
+        <v>5.96759493138188e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>5.818142361111111</v>
       </c>
       <c r="AH26" t="n">
-        <v>256804.3814801561</v>
+        <v>295187.0603492628</v>
       </c>
     </row>
   </sheetData>
@@ -24506,28 +24506,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.4399017510115</v>
+        <v>397.3952927022099</v>
       </c>
       <c r="AB2" t="n">
-        <v>478.1190897761794</v>
+        <v>543.7337713181431</v>
       </c>
       <c r="AC2" t="n">
-        <v>432.4880748922972</v>
+        <v>491.8405833186798</v>
       </c>
       <c r="AD2" t="n">
-        <v>349439.9017510115</v>
+        <v>397395.2927022098</v>
       </c>
       <c r="AE2" t="n">
-        <v>478119.0897761794</v>
+        <v>543733.7713181431</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.477062636664105e-06</v>
+        <v>4.46673010586521e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.919270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>432488.0748922972</v>
+        <v>491840.5833186798</v>
       </c>
     </row>
     <row r="3">
@@ -24612,28 +24612,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.90696715624</v>
+        <v>273.2542117462872</v>
       </c>
       <c r="AB3" t="n">
-        <v>321.4100758269989</v>
+        <v>373.8784676362854</v>
       </c>
       <c r="AC3" t="n">
-        <v>290.7351492920401</v>
+        <v>338.1960314268026</v>
       </c>
       <c r="AD3" t="n">
-        <v>234906.96715624</v>
+        <v>273254.2117462872</v>
       </c>
       <c r="AE3" t="n">
-        <v>321410.0758269989</v>
+        <v>373878.4676362855</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.193536382983531e-06</v>
+        <v>5.758701816785242e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.918402777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>290735.1492920402</v>
+        <v>338196.0314268026</v>
       </c>
     </row>
     <row r="4">
@@ -24718,28 +24718,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>212.0708522847345</v>
+        <v>240.8100400221756</v>
       </c>
       <c r="AB4" t="n">
-        <v>290.1646960015356</v>
+        <v>329.486920547363</v>
       </c>
       <c r="AC4" t="n">
-        <v>262.4717846639431</v>
+        <v>298.041151288218</v>
       </c>
       <c r="AD4" t="n">
-        <v>212070.8522847345</v>
+        <v>240810.0400221756</v>
       </c>
       <c r="AE4" t="n">
-        <v>290164.6960015356</v>
+        <v>329486.9205473629</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.456525112092963e-06</v>
+        <v>6.232932729007275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.393229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>262471.7846639431</v>
+        <v>298041.151288218</v>
       </c>
     </row>
     <row r="5">
@@ -24824,28 +24824,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>201.9593178302808</v>
+        <v>230.6985055677218</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.3296484715422</v>
+        <v>315.6518730173696</v>
       </c>
       <c r="AC5" t="n">
-        <v>249.9571346525967</v>
+        <v>285.5265012768716</v>
       </c>
       <c r="AD5" t="n">
-        <v>201959.3178302808</v>
+        <v>230698.5055677218</v>
       </c>
       <c r="AE5" t="n">
-        <v>276329.6484715422</v>
+        <v>315651.8730173695</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.582877807727809e-06</v>
+        <v>6.460776539331528e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.167534722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>249957.1346525967</v>
+        <v>285526.5012768715</v>
       </c>
     </row>
     <row r="6">
@@ -24930,28 +24930,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>195.5843243152217</v>
+        <v>224.3235120526627</v>
       </c>
       <c r="AB6" t="n">
-        <v>267.6071010993781</v>
+        <v>306.9293256452054</v>
       </c>
       <c r="AC6" t="n">
-        <v>242.0670549594571</v>
+        <v>277.6364215837319</v>
       </c>
       <c r="AD6" t="n">
-        <v>195584.3243152217</v>
+        <v>224323.5120526627</v>
       </c>
       <c r="AE6" t="n">
-        <v>267607.1010993781</v>
+        <v>306929.3256452054</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.659850118686667e-06</v>
+        <v>6.599575830713586e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.037326388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>242067.0549594571</v>
+        <v>277636.4215837319</v>
       </c>
     </row>
     <row r="7">
@@ -25036,28 +25036,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>181.4251875912489</v>
+        <v>219.6870913267211</v>
       </c>
       <c r="AB7" t="n">
-        <v>248.2339455766221</v>
+        <v>300.5855702635289</v>
       </c>
       <c r="AC7" t="n">
-        <v>224.5428462093922</v>
+        <v>271.898105312164</v>
       </c>
       <c r="AD7" t="n">
-        <v>181425.1875912489</v>
+        <v>219687.0913267211</v>
       </c>
       <c r="AE7" t="n">
-        <v>248233.9455766221</v>
+        <v>300585.5702635289</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.706990568387661e-06</v>
+        <v>6.684581216837782e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.961371527777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>224542.8462093922</v>
+        <v>271898.105312164</v>
       </c>
     </row>
     <row r="8">
@@ -25142,28 +25142,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>177.0456123968326</v>
+        <v>205.8700514802941</v>
       </c>
       <c r="AB8" t="n">
-        <v>242.2416175824033</v>
+        <v>281.6804867808798</v>
       </c>
       <c r="AC8" t="n">
-        <v>219.1224175886545</v>
+        <v>254.7972964636417</v>
       </c>
       <c r="AD8" t="n">
-        <v>177045.6123968326</v>
+        <v>205870.0514802941</v>
       </c>
       <c r="AE8" t="n">
-        <v>242241.6175824033</v>
+        <v>281680.4867808798</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.753316496279566e-06</v>
+        <v>6.768117827391799e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.887586805555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>219122.4175886546</v>
+        <v>254797.2964636417</v>
       </c>
     </row>
     <row r="9">
@@ -25248,28 +25248,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>174.0620024765656</v>
+        <v>202.8864415600272</v>
       </c>
       <c r="AB9" t="n">
-        <v>238.1593108619162</v>
+        <v>277.5981800603927</v>
       </c>
       <c r="AC9" t="n">
-        <v>215.429720492016</v>
+        <v>251.1045993670031</v>
       </c>
       <c r="AD9" t="n">
-        <v>174062.0024765656</v>
+        <v>202886.4415600272</v>
       </c>
       <c r="AE9" t="n">
-        <v>238159.3108619162</v>
+        <v>277598.1800603927</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.777548520099948e-06</v>
+        <v>6.811813900604671e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.848524305555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>215429.720492016</v>
+        <v>251104.5993670031</v>
       </c>
     </row>
     <row r="10">
@@ -25354,28 +25354,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>170.7683070717622</v>
+        <v>199.5927461552238</v>
       </c>
       <c r="AB10" t="n">
-        <v>233.6527315014805</v>
+        <v>273.091600699957</v>
       </c>
       <c r="AC10" t="n">
-        <v>211.353242740715</v>
+        <v>247.028121615702</v>
       </c>
       <c r="AD10" t="n">
-        <v>170768.3070717622</v>
+        <v>199592.7461552238</v>
       </c>
       <c r="AE10" t="n">
-        <v>233652.7315014805</v>
+        <v>273091.6006999571</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.803104141860098e-06</v>
+        <v>6.857896734119085e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.809461805555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>211353.242740715</v>
+        <v>247028.1216157021</v>
       </c>
     </row>
     <row r="11">
@@ -25460,28 +25460,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>167.9545217214942</v>
+        <v>196.7789608049557</v>
       </c>
       <c r="AB11" t="n">
-        <v>229.8027862497972</v>
+        <v>269.2416554482737</v>
       </c>
       <c r="AC11" t="n">
-        <v>207.8707308604189</v>
+        <v>243.545609735406</v>
       </c>
       <c r="AD11" t="n">
-        <v>167954.5217214942</v>
+        <v>196778.9608049557</v>
       </c>
       <c r="AE11" t="n">
-        <v>229802.7862497972</v>
+        <v>269241.6554482737</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.821023621660043e-06</v>
+        <v>6.890209796663054e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.783420138888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>207870.7308604189</v>
+        <v>243545.609735406</v>
       </c>
     </row>
     <row r="12">
@@ -25566,28 +25566,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>167.626790827099</v>
+        <v>196.4512299105605</v>
       </c>
       <c r="AB12" t="n">
-        <v>229.3543703816192</v>
+        <v>268.7932395800958</v>
       </c>
       <c r="AC12" t="n">
-        <v>207.4651111733441</v>
+        <v>243.1399900483312</v>
       </c>
       <c r="AD12" t="n">
-        <v>167626.790827099</v>
+        <v>196451.2299105605</v>
       </c>
       <c r="AE12" t="n">
-        <v>229354.3703816192</v>
+        <v>268793.2395800957</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.818885501911186e-06</v>
+        <v>6.886354260791331e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.785590277777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>207465.1111733441</v>
+        <v>243139.9900483312</v>
       </c>
     </row>
   </sheetData>
@@ -25863,28 +25863,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.7440109809787</v>
+        <v>306.8319317692167</v>
       </c>
       <c r="AB2" t="n">
-        <v>356.7614590380845</v>
+        <v>419.8209855161169</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.7126461053415</v>
+        <v>379.7538598809118</v>
       </c>
       <c r="AD2" t="n">
-        <v>260744.0109809787</v>
+        <v>306831.9317692167</v>
       </c>
       <c r="AE2" t="n">
-        <v>356761.4590380845</v>
+        <v>419820.985516117</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.898345240412669e-06</v>
+        <v>5.407385783602045e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.940538194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>322712.6461053416</v>
+        <v>379753.8598809118</v>
       </c>
     </row>
     <row r="3">
@@ -25969,28 +25969,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>195.0832251338553</v>
+        <v>222.9237274868552</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.9214750924972</v>
+        <v>305.0140786481319</v>
       </c>
       <c r="AC3" t="n">
-        <v>241.4468641363905</v>
+        <v>275.9039630719925</v>
       </c>
       <c r="AD3" t="n">
-        <v>195083.2251338552</v>
+        <v>222923.7274868552</v>
       </c>
       <c r="AE3" t="n">
-        <v>266921.4750924972</v>
+        <v>305014.0786481319</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.521010086228783e-06</v>
+        <v>6.569079355598809e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.536458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>241446.8641363905</v>
+        <v>275903.9630719925</v>
       </c>
     </row>
     <row r="4">
@@ -26075,28 +26075,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.7049067341585</v>
+        <v>207.3748168865663</v>
       </c>
       <c r="AB4" t="n">
-        <v>245.880181414517</v>
+        <v>283.7393731953049</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.4137219953889</v>
+        <v>256.6596856483398</v>
       </c>
       <c r="AD4" t="n">
-        <v>179704.9067341585</v>
+        <v>207374.8168865663</v>
       </c>
       <c r="AE4" t="n">
-        <v>245880.181414517</v>
+        <v>283739.3731953049</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.742458595522609e-06</v>
+        <v>6.982231489533276e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.150173611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>222413.7219953889</v>
+        <v>256659.6856483398</v>
       </c>
     </row>
     <row r="5">
@@ -26181,28 +26181,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>162.6296382184504</v>
+        <v>199.4658385072116</v>
       </c>
       <c r="AB5" t="n">
-        <v>222.5170457236558</v>
+        <v>272.9179600571766</v>
       </c>
       <c r="AC5" t="n">
-        <v>201.2803311844891</v>
+        <v>246.8710529921624</v>
       </c>
       <c r="AD5" t="n">
-        <v>162629.6382184504</v>
+        <v>199465.8385072116</v>
       </c>
       <c r="AE5" t="n">
-        <v>222517.0457236558</v>
+        <v>272917.9600571766</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.848410252986465e-06</v>
+        <v>7.179903415682955e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.980902777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>201280.3311844891</v>
+        <v>246871.0529921624</v>
       </c>
     </row>
     <row r="6">
@@ -26287,28 +26287,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>157.0128629787482</v>
+        <v>184.7680244771766</v>
       </c>
       <c r="AB6" t="n">
-        <v>214.831926046064</v>
+        <v>252.8077624795012</v>
       </c>
       <c r="AC6" t="n">
-        <v>194.3286685427911</v>
+        <v>228.6801444464542</v>
       </c>
       <c r="AD6" t="n">
-        <v>157012.8629787482</v>
+        <v>184768.0244771766</v>
       </c>
       <c r="AE6" t="n">
-        <v>214831.926046064</v>
+        <v>252807.7624795011</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.915332671264435e-06</v>
+        <v>7.304759256924644e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.87890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>194328.6685427911</v>
+        <v>228680.1444464542</v>
       </c>
     </row>
     <row r="7">
@@ -26393,28 +26393,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>152.1172720987084</v>
+        <v>179.8724335971367</v>
       </c>
       <c r="AB7" t="n">
-        <v>208.1335626257702</v>
+        <v>246.1093990592072</v>
       </c>
       <c r="AC7" t="n">
-        <v>188.2695875261159</v>
+        <v>222.621063429779</v>
       </c>
       <c r="AD7" t="n">
-        <v>152117.2720987083</v>
+        <v>179872.4335971367</v>
       </c>
       <c r="AE7" t="n">
-        <v>208133.5626257702</v>
+        <v>246109.3990592072</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.963588931670897e-06</v>
+        <v>7.394790014079904e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.807291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>188269.5875261159</v>
+        <v>222621.063429779</v>
       </c>
     </row>
     <row r="8">
@@ -26499,28 +26499,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>151.627538290319</v>
+        <v>179.3826997887473</v>
       </c>
       <c r="AB8" t="n">
-        <v>207.4634872236014</v>
+        <v>245.4393236570384</v>
       </c>
       <c r="AC8" t="n">
-        <v>187.6634631798731</v>
+        <v>222.0149390835362</v>
       </c>
       <c r="AD8" t="n">
-        <v>151627.538290319</v>
+        <v>179382.6997887473</v>
       </c>
       <c r="AE8" t="n">
-        <v>207463.4872236014</v>
+        <v>245439.3236570384</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.967194893986984e-06</v>
+        <v>7.401517587142056e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.80078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>187663.4631798731</v>
+        <v>222014.9390835362</v>
       </c>
     </row>
   </sheetData>
@@ -49777,28 +49777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.6775618017117</v>
+        <v>249.3742601870898</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.3630668456839</v>
+        <v>341.2048644037207</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.4603460801594</v>
+        <v>308.6407510291662</v>
       </c>
       <c r="AD2" t="n">
-        <v>213677.5618017117</v>
+        <v>249374.2601870899</v>
       </c>
       <c r="AE2" t="n">
-        <v>292363.0668456838</v>
+        <v>341204.8644037207</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.242423227475803e-06</v>
+        <v>6.235300107187116e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>264460.3460801594</v>
+        <v>308640.7510291662</v>
       </c>
     </row>
     <row r="3">
@@ -49883,28 +49883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.4199837438554</v>
+        <v>194.2352003373126</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.071407806641</v>
+        <v>265.7611701536545</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.2091541493812</v>
+        <v>240.3972970724124</v>
       </c>
       <c r="AD3" t="n">
-        <v>167419.9837438554</v>
+        <v>194235.2003373126</v>
       </c>
       <c r="AE3" t="n">
-        <v>229071.407806641</v>
+        <v>265761.1701536545</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.78823954867402e-06</v>
+        <v>7.284925133689652e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.284722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>207209.1541493812</v>
+        <v>240397.2970724124</v>
       </c>
     </row>
     <row r="4">
@@ -49989,28 +49989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.6356946178714</v>
+        <v>182.3323034946984</v>
       </c>
       <c r="AB4" t="n">
-        <v>200.6334264863618</v>
+        <v>249.4751015748503</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.485253853343</v>
+        <v>225.6655480211233</v>
       </c>
       <c r="AD4" t="n">
-        <v>146635.6946178714</v>
+        <v>182332.3034946984</v>
       </c>
       <c r="AE4" t="n">
-        <v>200633.4264863618</v>
+        <v>249475.1015748503</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.977053596670429e-06</v>
+        <v>7.648021549892838e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.987413194444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>181485.253853343</v>
+        <v>225665.5480211233</v>
       </c>
     </row>
     <row r="5">
@@ -50095,28 +50095,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>139.6753633159671</v>
+        <v>166.5758312554449</v>
       </c>
       <c r="AB5" t="n">
-        <v>191.109994130956</v>
+        <v>227.9164011306187</v>
       </c>
       <c r="AC5" t="n">
-        <v>172.8707245157128</v>
+        <v>206.1643796894562</v>
       </c>
       <c r="AD5" t="n">
-        <v>139675.3633159671</v>
+        <v>166575.8312554448</v>
       </c>
       <c r="AE5" t="n">
-        <v>191109.994130956</v>
+        <v>227916.4011306187</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.069979511053321e-06</v>
+        <v>7.826721529279301e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.850694444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>172870.7245157128</v>
+        <v>206164.3796894562</v>
       </c>
     </row>
     <row r="6">
@@ -50201,28 +50201,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>139.2569435371375</v>
+        <v>166.1574114766152</v>
       </c>
       <c r="AB6" t="n">
-        <v>190.5374937301837</v>
+        <v>227.3439007298465</v>
       </c>
       <c r="AC6" t="n">
-        <v>172.3528627496807</v>
+        <v>205.6465179234241</v>
       </c>
       <c r="AD6" t="n">
-        <v>139256.9435371375</v>
+        <v>166157.4114766152</v>
       </c>
       <c r="AE6" t="n">
-        <v>190537.4937301837</v>
+        <v>227343.9007298465</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.082267235269241e-06</v>
+        <v>7.85035127861966e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>172352.8627496807</v>
+        <v>205646.5179234241</v>
       </c>
     </row>
   </sheetData>
@@ -50498,28 +50498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.5187513594591</v>
+        <v>157.6397002637461</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.31800192463</v>
+        <v>215.689592473507</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.0132663024082</v>
+        <v>195.1044804901416</v>
       </c>
       <c r="AD2" t="n">
-        <v>132518.7513594591</v>
+        <v>157639.7002637461</v>
       </c>
       <c r="AE2" t="n">
-        <v>181318.0019246301</v>
+        <v>215689.592473507</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.997992439955044e-06</v>
+        <v>8.246256493464646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.391059027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>164013.2663024082</v>
+        <v>195104.4804901415</v>
       </c>
     </row>
     <row r="3">
@@ -50604,28 +50604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.3440507871797</v>
+        <v>148.4649996914666</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.7647718424208</v>
+        <v>203.1363623912977</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.6580988806719</v>
+        <v>183.7493130684053</v>
       </c>
       <c r="AD3" t="n">
-        <v>123344.0507871797</v>
+        <v>148464.9996914666</v>
       </c>
       <c r="AE3" t="n">
-        <v>168764.7718424208</v>
+        <v>203136.3623912977</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.220783488977044e-06</v>
+        <v>8.705785159983117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.0546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>152658.0988806719</v>
+        <v>183749.3130684053</v>
       </c>
     </row>
   </sheetData>
@@ -50901,28 +50901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>464.3515978702046</v>
+        <v>513.8174763751209</v>
       </c>
       <c r="AB2" t="n">
-        <v>635.3463419527013</v>
+        <v>703.02773920367</v>
       </c>
       <c r="AC2" t="n">
-        <v>574.7097787909263</v>
+        <v>635.9317584797</v>
       </c>
       <c r="AD2" t="n">
-        <v>464351.5978702045</v>
+        <v>513817.4763751209</v>
       </c>
       <c r="AE2" t="n">
-        <v>635346.3419527013</v>
+        <v>703027.7392036699</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.132412953022077e-06</v>
+        <v>3.746565439511861e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.02170138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>574709.7787909263</v>
+        <v>635931.7584797</v>
       </c>
     </row>
     <row r="3">
@@ -51007,28 +51007,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>284.4999946738749</v>
+        <v>323.9703063540322</v>
       </c>
       <c r="AB3" t="n">
-        <v>389.2654439667386</v>
+        <v>443.2704657147859</v>
       </c>
       <c r="AC3" t="n">
-        <v>352.1144963320343</v>
+        <v>400.965354600972</v>
       </c>
       <c r="AD3" t="n">
-        <v>284499.9946738749</v>
+        <v>323970.3063540322</v>
       </c>
       <c r="AE3" t="n">
-        <v>389265.4439667386</v>
+        <v>443270.4657147859</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.926134593428374e-06</v>
+        <v>5.141103051152463e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.302517361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>352114.4963320342</v>
+        <v>400965.354600972</v>
       </c>
     </row>
     <row r="4">
@@ -51113,28 +51113,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>244.0893103456002</v>
+        <v>283.6448733717812</v>
       </c>
       <c r="AB4" t="n">
-        <v>333.9737628750667</v>
+        <v>388.0954292759248</v>
       </c>
       <c r="AC4" t="n">
-        <v>302.0997756814899</v>
+        <v>351.0561462011857</v>
       </c>
       <c r="AD4" t="n">
-        <v>244089.3103456002</v>
+        <v>283644.8733717812</v>
       </c>
       <c r="AE4" t="n">
-        <v>333973.7628750667</v>
+        <v>388095.4292759248</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.208860999086746e-06</v>
+        <v>5.637842192966381e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.66015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>302099.7756814898</v>
+        <v>351056.1462011857</v>
       </c>
     </row>
     <row r="5">
@@ -51219,28 +51219,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>230.581612489853</v>
+        <v>260.2270390543974</v>
       </c>
       <c r="AB5" t="n">
-        <v>315.4919347512708</v>
+        <v>356.0541152409443</v>
       </c>
       <c r="AC5" t="n">
-        <v>285.3818272944145</v>
+        <v>322.072810207437</v>
       </c>
       <c r="AD5" t="n">
-        <v>230581.612489853</v>
+        <v>260227.0390543974</v>
       </c>
       <c r="AE5" t="n">
-        <v>315491.9347512708</v>
+        <v>356054.1152409443</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.354310982074352e-06</v>
+        <v>5.893392075397294e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.371527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>285381.8272944145</v>
+        <v>322072.810207437</v>
       </c>
     </row>
     <row r="6">
@@ -51325,28 +51325,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>221.7376369565573</v>
+        <v>251.3830635210986</v>
       </c>
       <c r="AB6" t="n">
-        <v>303.3912172579581</v>
+        <v>343.9533977474586</v>
       </c>
       <c r="AC6" t="n">
-        <v>274.435985295196</v>
+        <v>311.1269682081693</v>
       </c>
       <c r="AD6" t="n">
-        <v>221737.6369565573</v>
+        <v>251383.0635210986</v>
       </c>
       <c r="AE6" t="n">
-        <v>303391.2172579581</v>
+        <v>343953.3977474585</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.452295229246096e-06</v>
+        <v>6.065546532417443e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.19140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>274435.9852951959</v>
+        <v>311126.9682081693</v>
       </c>
     </row>
     <row r="7">
@@ -51431,28 +51431,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>216.2974036736857</v>
+        <v>245.9428302382269</v>
       </c>
       <c r="AB7" t="n">
-        <v>295.9476500741831</v>
+        <v>336.5098305636836</v>
       </c>
       <c r="AC7" t="n">
-        <v>267.702821716326</v>
+        <v>304.3938046292993</v>
       </c>
       <c r="AD7" t="n">
-        <v>216297.4036736857</v>
+        <v>245942.8302382269</v>
       </c>
       <c r="AE7" t="n">
-        <v>295947.6500741831</v>
+        <v>336509.8305636836</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.51010101124591e-06</v>
+        <v>6.167109011081592e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.089409722222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>267702.8217163259</v>
+        <v>304393.8046292993</v>
       </c>
     </row>
     <row r="8">
@@ -51537,28 +51537,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>212.6077928796657</v>
+        <v>242.2532194442069</v>
       </c>
       <c r="AB8" t="n">
-        <v>290.8993618116673</v>
+        <v>331.4615423011679</v>
       </c>
       <c r="AC8" t="n">
-        <v>263.1363350002659</v>
+        <v>299.8273179132394</v>
       </c>
       <c r="AD8" t="n">
-        <v>212607.7928796657</v>
+        <v>242253.2194442069</v>
       </c>
       <c r="AE8" t="n">
-        <v>290899.3618116673</v>
+        <v>331461.5423011679</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.546931270986848e-06</v>
+        <v>6.231818324574593e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.024305555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>263136.335000266</v>
+        <v>299827.3179132394</v>
       </c>
     </row>
     <row r="9">
@@ -51643,28 +51643,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>198.647907710155</v>
+        <v>238.1181298817607</v>
       </c>
       <c r="AB9" t="n">
-        <v>271.7988310560842</v>
+        <v>325.8037303345553</v>
       </c>
       <c r="AC9" t="n">
-        <v>245.8587320922264</v>
+        <v>294.7094795799296</v>
       </c>
       <c r="AD9" t="n">
-        <v>198647.9077101549</v>
+        <v>238118.1298817607</v>
       </c>
       <c r="AE9" t="n">
-        <v>271798.8310560842</v>
+        <v>325803.7303345553</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.585928016594899e-06</v>
+        <v>6.300334068273064e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.959201388888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>245858.7320922264</v>
+        <v>294709.4795799296</v>
       </c>
     </row>
     <row r="10">
@@ -51749,28 +51749,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>195.6702980352043</v>
+        <v>225.4009759457661</v>
       </c>
       <c r="AB10" t="n">
-        <v>267.7247341359511</v>
+        <v>308.4035592781008</v>
       </c>
       <c r="AC10" t="n">
-        <v>242.1734612641185</v>
+        <v>278.9699564278042</v>
       </c>
       <c r="AD10" t="n">
-        <v>195670.2980352043</v>
+        <v>225400.9759457661</v>
       </c>
       <c r="AE10" t="n">
-        <v>267724.7341359511</v>
+        <v>308403.5592781008</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.61261518341253e-06</v>
+        <v>6.347222367622271e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.915798611111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>242173.4612641186</v>
+        <v>278969.9564278041</v>
       </c>
     </row>
     <row r="11">
@@ -51855,28 +51855,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>192.6244706442399</v>
+        <v>222.3551485548016</v>
       </c>
       <c r="AB11" t="n">
-        <v>263.5572987272146</v>
+        <v>304.2361238693644</v>
       </c>
       <c r="AC11" t="n">
-        <v>238.4037600417582</v>
+        <v>275.2002552054438</v>
       </c>
       <c r="AD11" t="n">
-        <v>192624.4706442399</v>
+        <v>222355.1485548016</v>
       </c>
       <c r="AE11" t="n">
-        <v>263557.2987272146</v>
+        <v>304236.1238693644</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.638219107296604e-06</v>
+        <v>6.39220745186874e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.874565972222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>238403.7600417582</v>
+        <v>275200.2552054438</v>
       </c>
     </row>
     <row r="12">
@@ -51961,28 +51961,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>190.701625170718</v>
+        <v>220.4323030812798</v>
       </c>
       <c r="AB12" t="n">
-        <v>260.9263767203881</v>
+        <v>301.6052018625379</v>
       </c>
       <c r="AC12" t="n">
-        <v>236.0239295387402</v>
+        <v>272.8204247024258</v>
       </c>
       <c r="AD12" t="n">
-        <v>190701.625170718</v>
+        <v>220432.3030812798</v>
       </c>
       <c r="AE12" t="n">
-        <v>260926.3767203881</v>
+        <v>301605.2018625379</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.645112471419239e-06</v>
+        <v>6.40431882070433e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.863715277777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>236023.9295387402</v>
+        <v>272820.4247024258</v>
       </c>
     </row>
     <row r="13">
@@ -52067,28 +52067,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>188.1599363340273</v>
+        <v>217.890614244589</v>
       </c>
       <c r="AB13" t="n">
-        <v>257.448725922632</v>
+        <v>298.1275510647818</v>
       </c>
       <c r="AC13" t="n">
-        <v>232.8781808522072</v>
+        <v>269.6746760158928</v>
       </c>
       <c r="AD13" t="n">
-        <v>188159.9363340273</v>
+        <v>217890.6142445891</v>
       </c>
       <c r="AE13" t="n">
-        <v>257448.725922632</v>
+        <v>298127.5510647817</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.666284946938762e-06</v>
+        <v>6.441518024985065e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.828993055555555</v>
       </c>
       <c r="AH13" t="n">
-        <v>232878.1808522072</v>
+        <v>269674.6760158928</v>
       </c>
     </row>
     <row r="14">
@@ -52173,28 +52173,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>185.1026265613032</v>
+        <v>214.8333044718649</v>
       </c>
       <c r="AB14" t="n">
-        <v>253.265579812605</v>
+        <v>293.9444049547548</v>
       </c>
       <c r="AC14" t="n">
-        <v>229.0942683358375</v>
+        <v>265.8907634995231</v>
       </c>
       <c r="AD14" t="n">
-        <v>185102.6265613032</v>
+        <v>214833.3044718649</v>
       </c>
       <c r="AE14" t="n">
-        <v>253265.5798126051</v>
+        <v>293944.4049547548</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.686078749633758e-06</v>
+        <v>6.476294955498684e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.798611111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>229094.2683358375</v>
+        <v>265890.7634995231</v>
       </c>
     </row>
     <row r="15">
@@ -52279,28 +52279,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>183.2776605659133</v>
+        <v>213.0083384764751</v>
       </c>
       <c r="AB15" t="n">
-        <v>250.7685808258964</v>
+        <v>291.4474059680461</v>
       </c>
       <c r="AC15" t="n">
-        <v>226.8355794278594</v>
+        <v>263.6320745915451</v>
       </c>
       <c r="AD15" t="n">
-        <v>183277.6605659133</v>
+        <v>213008.3384764751</v>
       </c>
       <c r="AE15" t="n">
-        <v>250768.5808258964</v>
+        <v>291447.4059680461</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.694449263211243e-06</v>
+        <v>6.491001617656183e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.785590277777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>226835.5794278595</v>
+        <v>263632.074591545</v>
       </c>
     </row>
     <row r="16">
@@ -52385,28 +52385,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>182.4766598826802</v>
+        <v>212.2073377932419</v>
       </c>
       <c r="AB16" t="n">
-        <v>249.6726163534412</v>
+        <v>290.351441495591</v>
       </c>
       <c r="AC16" t="n">
-        <v>225.8442122664592</v>
+        <v>262.6407074301449</v>
       </c>
       <c r="AD16" t="n">
-        <v>182476.6598826802</v>
+        <v>212207.3377932419</v>
       </c>
       <c r="AE16" t="n">
-        <v>249672.6163534412</v>
+        <v>290351.441495591</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.691298011040896e-06</v>
+        <v>6.485464991902772e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.789930555555555</v>
       </c>
       <c r="AH16" t="n">
-        <v>225844.2122664592</v>
+        <v>262640.7074301448</v>
       </c>
     </row>
     <row r="17">
@@ -52491,28 +52491,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>182.9765593776335</v>
+        <v>212.7072372881952</v>
       </c>
       <c r="AB17" t="n">
-        <v>250.3566008964452</v>
+        <v>291.0354260385949</v>
       </c>
       <c r="AC17" t="n">
-        <v>226.4629182846575</v>
+        <v>263.2594134483431</v>
       </c>
       <c r="AD17" t="n">
-        <v>182976.5593776335</v>
+        <v>212707.2372881952</v>
       </c>
       <c r="AE17" t="n">
-        <v>250356.6008964452</v>
+        <v>291035.426038595</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.689525431695075e-06</v>
+        <v>6.482350639916477e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.792100694444445</v>
       </c>
       <c r="AH17" t="n">
-        <v>226462.9182846575</v>
+        <v>263259.4134483431</v>
       </c>
     </row>
   </sheetData>
@@ -52788,28 +52788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>643.4228048669593</v>
+        <v>704.9702455014526</v>
       </c>
       <c r="AB2" t="n">
-        <v>880.359467429755</v>
+        <v>964.5713909873148</v>
       </c>
       <c r="AC2" t="n">
-        <v>796.3391954505313</v>
+        <v>872.5140512159346</v>
       </c>
       <c r="AD2" t="n">
-        <v>643422.8048669592</v>
+        <v>704970.2455014526</v>
       </c>
       <c r="AE2" t="n">
-        <v>880359.467429755</v>
+        <v>964571.3909873147</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.74407915044694e-06</v>
+        <v>2.982180982905761e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.80772569444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>796339.1954505313</v>
+        <v>872514.0512159346</v>
       </c>
     </row>
     <row r="3">
@@ -52894,28 +52894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>343.1158108728379</v>
+        <v>384.1474379625</v>
       </c>
       <c r="AB3" t="n">
-        <v>469.4661896374634</v>
+        <v>525.6074720091698</v>
       </c>
       <c r="AC3" t="n">
-        <v>424.6609953983985</v>
+        <v>475.444232575334</v>
       </c>
       <c r="AD3" t="n">
-        <v>343115.8108728378</v>
+        <v>384147.4379625</v>
       </c>
       <c r="AE3" t="n">
-        <v>469466.1896374634</v>
+        <v>525607.4720091698</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.610567355612128e-06</v>
+        <v>4.463779250216958e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.888454861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>424660.9953983985</v>
+        <v>475444.232575334</v>
       </c>
     </row>
     <row r="4">
@@ -53000,28 +53000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>296.1808414635581</v>
+        <v>326.9546512893558</v>
       </c>
       <c r="AB4" t="n">
-        <v>405.2476938669739</v>
+        <v>447.3537781153021</v>
       </c>
       <c r="AC4" t="n">
-        <v>366.5714227330197</v>
+        <v>404.6589613969479</v>
       </c>
       <c r="AD4" t="n">
-        <v>296180.8414635581</v>
+        <v>326954.6512893558</v>
       </c>
       <c r="AE4" t="n">
-        <v>405247.6938669739</v>
+        <v>447353.7781153021</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.939284379234099e-06</v>
+        <v>5.025848727597967e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.007378472222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>366571.4227330197</v>
+        <v>404658.9613969479</v>
       </c>
     </row>
     <row r="5">
@@ -53106,28 +53106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>266.5432333007158</v>
+        <v>307.4895195358064</v>
       </c>
       <c r="AB5" t="n">
-        <v>364.696210859581</v>
+        <v>420.7207261090897</v>
       </c>
       <c r="AC5" t="n">
-        <v>329.8901163494885</v>
+        <v>380.5677304944851</v>
       </c>
       <c r="AD5" t="n">
-        <v>266543.2333007157</v>
+        <v>307489.5195358064</v>
       </c>
       <c r="AE5" t="n">
-        <v>364696.210859581</v>
+        <v>420720.7261090897</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.108197861349314e-06</v>
+        <v>5.314671957891903e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.625434027777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>329890.1163494885</v>
+        <v>380567.7304944851</v>
       </c>
     </row>
     <row r="6">
@@ -53212,28 +53212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>256.2182893083894</v>
+        <v>286.9067582796187</v>
       </c>
       <c r="AB6" t="n">
-        <v>350.5691669847333</v>
+        <v>392.5584841110339</v>
       </c>
       <c r="AC6" t="n">
-        <v>317.1113377147311</v>
+        <v>355.0932533467688</v>
       </c>
       <c r="AD6" t="n">
-        <v>256218.2893083894</v>
+        <v>286906.7582796187</v>
       </c>
       <c r="AE6" t="n">
-        <v>350569.1669847333</v>
+        <v>392558.4841110339</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.206888884607643e-06</v>
+        <v>5.483422609299596e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.421440972222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>317111.3377147311</v>
+        <v>355093.2533467688</v>
       </c>
     </row>
     <row r="7">
@@ -53318,28 +53318,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>248.7028870548056</v>
+        <v>279.3913560260349</v>
       </c>
       <c r="AB7" t="n">
-        <v>340.2862620652377</v>
+        <v>382.275579191533</v>
       </c>
       <c r="AC7" t="n">
-        <v>307.8098188086013</v>
+        <v>345.7917344406375</v>
       </c>
       <c r="AD7" t="n">
-        <v>248702.8870548056</v>
+        <v>279391.3560260349</v>
       </c>
       <c r="AE7" t="n">
-        <v>340286.2620652377</v>
+        <v>382275.579191533</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.280527571192703e-06</v>
+        <v>5.609336556888413e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.278211805555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>307809.8188086013</v>
+        <v>345791.7344406375</v>
       </c>
     </row>
     <row r="8">
@@ -53424,28 +53424,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>243.5528573083903</v>
+        <v>274.2413262796194</v>
       </c>
       <c r="AB8" t="n">
-        <v>333.2397641629186</v>
+        <v>375.2290812892102</v>
       </c>
       <c r="AC8" t="n">
-        <v>301.4358287762553</v>
+        <v>339.4177444082905</v>
       </c>
       <c r="AD8" t="n">
-        <v>243552.8573083903</v>
+        <v>274241.3262796194</v>
       </c>
       <c r="AE8" t="n">
-        <v>333239.7641629186</v>
+        <v>375229.0812892102</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.330537349324568e-06</v>
+        <v>5.694847704284427e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.182725694444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>301435.8287762553</v>
+        <v>339417.7444082905</v>
       </c>
     </row>
     <row r="9">
@@ -53530,28 +53530,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>239.87043330713</v>
+        <v>270.558902278359</v>
       </c>
       <c r="AB9" t="n">
-        <v>328.2013091873155</v>
+        <v>370.1906263136045</v>
       </c>
       <c r="AC9" t="n">
-        <v>296.8782368720061</v>
+        <v>334.8601525040406</v>
       </c>
       <c r="AD9" t="n">
-        <v>239870.4333071299</v>
+        <v>270558.902278359</v>
       </c>
       <c r="AE9" t="n">
-        <v>328201.3091873155</v>
+        <v>370190.6263136045</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.364130255318268e-06</v>
+        <v>5.752287829859738e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.121961805555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>296878.2368720061</v>
+        <v>334860.1525040406</v>
       </c>
     </row>
     <row r="10">
@@ -53636,28 +53636,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>236.1783059911568</v>
+        <v>266.8667749623859</v>
       </c>
       <c r="AB10" t="n">
-        <v>323.1495777084423</v>
+        <v>365.1388948347288</v>
       </c>
       <c r="AC10" t="n">
-        <v>292.3086355553254</v>
+        <v>330.290551187359</v>
       </c>
       <c r="AD10" t="n">
-        <v>236178.3059911568</v>
+        <v>266866.7749623859</v>
       </c>
       <c r="AE10" t="n">
-        <v>323149.5777084423</v>
+        <v>365138.8948347288</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.401234284254812e-06</v>
+        <v>5.815731584379361e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.0546875</v>
       </c>
       <c r="AH10" t="n">
-        <v>292308.6355553254</v>
+        <v>330290.551187359</v>
       </c>
     </row>
     <row r="11">
@@ -53742,28 +53742,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>232.8983536359671</v>
+        <v>263.5868226071962</v>
       </c>
       <c r="AB11" t="n">
-        <v>318.6618021947886</v>
+        <v>360.6511193210727</v>
       </c>
       <c r="AC11" t="n">
-        <v>288.2491670380608</v>
+        <v>326.2310826700939</v>
       </c>
       <c r="AD11" t="n">
-        <v>232898.3536359671</v>
+        <v>263586.8226071962</v>
       </c>
       <c r="AE11" t="n">
-        <v>318661.8021947886</v>
+        <v>360651.1193210727</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.428564106080196e-06</v>
+        <v>5.862462533999953e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.006944444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>288249.1670380608</v>
+        <v>326231.0826700939</v>
       </c>
     </row>
     <row r="12">
@@ -53848,28 +53848,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>220.2735441435825</v>
+        <v>261.1344895241042</v>
       </c>
       <c r="AB12" t="n">
-        <v>301.3879808800306</v>
+        <v>357.2957290074864</v>
       </c>
       <c r="AC12" t="n">
-        <v>272.6239349856173</v>
+        <v>323.1959260987163</v>
       </c>
       <c r="AD12" t="n">
-        <v>220273.5441435825</v>
+        <v>261134.4895241042</v>
       </c>
       <c r="AE12" t="n">
-        <v>301387.9808800305</v>
+        <v>357295.7290074864</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.449061472449233e-06</v>
+        <v>5.897510746215397e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.970052083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>272623.9349856174</v>
+        <v>323195.9260987163</v>
       </c>
     </row>
     <row r="13">
@@ -53954,28 +53954,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>218.0257303141855</v>
+        <v>258.8866756947072</v>
       </c>
       <c r="AB13" t="n">
-        <v>298.3124228321038</v>
+        <v>354.220170959558</v>
       </c>
       <c r="AC13" t="n">
-        <v>269.8419038812109</v>
+        <v>320.4138949943094</v>
       </c>
       <c r="AD13" t="n">
-        <v>218025.7303141855</v>
+        <v>258886.6756947072</v>
       </c>
       <c r="AE13" t="n">
-        <v>298312.4228321038</v>
+        <v>354220.170959558</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.46500386851404e-06</v>
+        <v>5.92477046682741e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.944010416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>269841.9038812109</v>
+        <v>320413.8949943093</v>
       </c>
     </row>
     <row r="14">
@@ -54060,28 +54060,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>216.4382911057728</v>
+        <v>247.212011423019</v>
       </c>
       <c r="AB14" t="n">
-        <v>296.1404184742794</v>
+        <v>338.2463802530376</v>
       </c>
       <c r="AC14" t="n">
-        <v>267.8771925708693</v>
+        <v>305.9646204535647</v>
       </c>
       <c r="AD14" t="n">
-        <v>216438.2911057728</v>
+        <v>247212.0114230191</v>
       </c>
       <c r="AE14" t="n">
-        <v>296140.4184742795</v>
+        <v>338246.3802530376</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.474113809122502e-06</v>
+        <v>5.940347450034273e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.926649305555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>267877.1925708693</v>
+        <v>305964.6204535647</v>
       </c>
     </row>
     <row r="15">
@@ -54166,28 +54166,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>213.6871132852571</v>
+        <v>244.4608336025034</v>
       </c>
       <c r="AB15" t="n">
-        <v>292.3761356068524</v>
+        <v>334.4820973856105</v>
       </c>
       <c r="AC15" t="n">
-        <v>264.4721675771041</v>
+        <v>302.5595954597995</v>
       </c>
       <c r="AD15" t="n">
-        <v>213687.1132852571</v>
+        <v>244460.8336025033</v>
       </c>
       <c r="AE15" t="n">
-        <v>292376.1356068524</v>
+        <v>334482.0973856105</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.49537033720891e-06</v>
+        <v>5.976693744183622e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.891927083333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>264472.1675771041</v>
+        <v>302559.5954597995</v>
       </c>
     </row>
     <row r="16">
@@ -54272,28 +54272,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>212.2814029912836</v>
+        <v>243.0551233085299</v>
       </c>
       <c r="AB16" t="n">
-        <v>290.4527807670775</v>
+        <v>332.5587425458356</v>
       </c>
       <c r="AC16" t="n">
-        <v>262.7323750237913</v>
+        <v>300.8198029064866</v>
       </c>
       <c r="AD16" t="n">
-        <v>212281.4029912836</v>
+        <v>243055.1233085299</v>
       </c>
       <c r="AE16" t="n">
-        <v>290452.7807670775</v>
+        <v>332558.7425458356</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.5037211161e-06</v>
+        <v>5.990972645456581e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.876736111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>262732.3750237913</v>
+        <v>300819.8029064867</v>
       </c>
     </row>
     <row r="17">
@@ -54378,28 +54378,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>210.5534399371712</v>
+        <v>241.3271602544175</v>
       </c>
       <c r="AB17" t="n">
-        <v>288.0885054840923</v>
+        <v>330.1944672628505</v>
       </c>
       <c r="AC17" t="n">
-        <v>260.5937428555324</v>
+        <v>298.6811707382276</v>
       </c>
       <c r="AD17" t="n">
-        <v>210553.4399371712</v>
+        <v>241327.1602544175</v>
       </c>
       <c r="AE17" t="n">
-        <v>288088.5054840923</v>
+        <v>330194.4672628505</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.51406469449919e-06</v>
+        <v>6.008659011806041e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.859375</v>
       </c>
       <c r="AH17" t="n">
-        <v>260593.7428555323</v>
+        <v>298681.1707382277</v>
       </c>
     </row>
     <row r="18">
@@ -54484,28 +54484,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>208.8879794951415</v>
+        <v>239.6616998123877</v>
       </c>
       <c r="AB18" t="n">
-        <v>285.8097490323793</v>
+        <v>327.9157108111374</v>
       </c>
       <c r="AC18" t="n">
-        <v>258.5324677213152</v>
+        <v>296.6198956040105</v>
       </c>
       <c r="AD18" t="n">
-        <v>208887.9794951415</v>
+        <v>239661.6998123877</v>
       </c>
       <c r="AE18" t="n">
-        <v>285809.7490323792</v>
+        <v>327915.7108111375</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.522320578175608e-06</v>
+        <v>6.022775652837262e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.846354166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>258532.4677213152</v>
+        <v>296619.8956040106</v>
       </c>
     </row>
     <row r="19">
@@ -54590,28 +54590,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>207.428551061219</v>
+        <v>238.2022713784652</v>
       </c>
       <c r="AB19" t="n">
-        <v>283.8128946636492</v>
+        <v>325.9188564424072</v>
       </c>
       <c r="AC19" t="n">
-        <v>256.7261903309334</v>
+        <v>294.8136182136287</v>
       </c>
       <c r="AD19" t="n">
-        <v>207428.551061219</v>
+        <v>238202.2713784652</v>
       </c>
       <c r="AE19" t="n">
-        <v>283812.8946636491</v>
+        <v>325918.8564424072</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.522605263819622e-06</v>
+        <v>6.023262433562476e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.846354166666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>256726.1903309334</v>
+        <v>294813.6182136287</v>
       </c>
     </row>
     <row r="20">
@@ -54696,28 +54696,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>206.490193884355</v>
+        <v>237.2639142016013</v>
       </c>
       <c r="AB20" t="n">
-        <v>282.5289929768675</v>
+        <v>324.6349547556257</v>
       </c>
       <c r="AC20" t="n">
-        <v>255.5648224191705</v>
+        <v>293.6522503018658</v>
       </c>
       <c r="AD20" t="n">
-        <v>206490.193884355</v>
+        <v>237263.9142016013</v>
       </c>
       <c r="AE20" t="n">
-        <v>282528.9929768675</v>
+        <v>324634.9547556257</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.531715204428083e-06</v>
+        <v>6.03883941676934e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.831163194444445</v>
       </c>
       <c r="AH20" t="n">
-        <v>255564.8224191705</v>
+        <v>293652.2503018658</v>
       </c>
     </row>
     <row r="21">
@@ -54802,28 +54802,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>204.7758902251093</v>
+        <v>235.5496105423555</v>
       </c>
       <c r="AB21" t="n">
-        <v>280.1834070805489</v>
+        <v>322.289368859307</v>
       </c>
       <c r="AC21" t="n">
-        <v>253.4430959487452</v>
+        <v>291.5305238314406</v>
       </c>
       <c r="AD21" t="n">
-        <v>204775.8902251093</v>
+        <v>235549.6105423555</v>
       </c>
       <c r="AE21" t="n">
-        <v>280183.4070805489</v>
+        <v>322289.368859307</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.540635354607202e-06</v>
+        <v>6.054091879492728e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.815972222222222</v>
       </c>
       <c r="AH21" t="n">
-        <v>253443.0959487452</v>
+        <v>291530.5238314406</v>
       </c>
     </row>
     <row r="22">
@@ -54908,28 +54908,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>203.3348452337156</v>
+        <v>234.1085655509618</v>
       </c>
       <c r="AB22" t="n">
-        <v>278.2117057489069</v>
+        <v>320.317667527665</v>
       </c>
       <c r="AC22" t="n">
-        <v>251.6595710248943</v>
+        <v>289.7469989075897</v>
       </c>
       <c r="AD22" t="n">
-        <v>203334.8452337156</v>
+        <v>234108.5655509618</v>
       </c>
       <c r="AE22" t="n">
-        <v>278211.7057489069</v>
+        <v>320317.667527665</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.542058782827274e-06</v>
+        <v>6.056525783118801e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.813802083333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>251659.5710248943</v>
+        <v>289746.9989075897</v>
       </c>
     </row>
     <row r="23">
@@ -55014,28 +55014,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>202.2007757445728</v>
+        <v>232.9744960618191</v>
       </c>
       <c r="AB23" t="n">
-        <v>276.6600218422477</v>
+        <v>318.7659836210058</v>
       </c>
       <c r="AC23" t="n">
-        <v>250.2559776524841</v>
+        <v>288.3434055351796</v>
       </c>
       <c r="AD23" t="n">
-        <v>202200.7757445728</v>
+        <v>232974.4960618191</v>
       </c>
       <c r="AE23" t="n">
-        <v>276660.0218422477</v>
+        <v>318765.9836210058</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.550789142577049e-06</v>
+        <v>6.071453725358711e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>5.798611111111111</v>
       </c>
       <c r="AH23" t="n">
-        <v>250255.9776524841</v>
+        <v>288343.4055351795</v>
       </c>
     </row>
     <row r="24">
@@ -55120,28 +55120,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>202.4624075740337</v>
+        <v>233.23612789128</v>
       </c>
       <c r="AB24" t="n">
-        <v>277.0179980536976</v>
+        <v>319.1239598324559</v>
       </c>
       <c r="AC24" t="n">
-        <v>250.5797891167362</v>
+        <v>288.6672169994316</v>
       </c>
       <c r="AD24" t="n">
-        <v>202462.4075740337</v>
+        <v>233236.12789128</v>
       </c>
       <c r="AE24" t="n">
-        <v>277017.9980536976</v>
+        <v>319123.9598324558</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.550978933006392e-06</v>
+        <v>6.071778245842188e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>5.798611111111111</v>
       </c>
       <c r="AH24" t="n">
-        <v>250579.7891167362</v>
+        <v>288667.2169994316</v>
       </c>
     </row>
   </sheetData>
@@ -55417,28 +55417,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.6410213890122</v>
+        <v>134.9695554432331</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.3839266017521</v>
+        <v>184.6713001938932</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.9360571155976</v>
+        <v>167.0465304912376</v>
       </c>
       <c r="AD2" t="n">
-        <v>110641.0213890122</v>
+        <v>134969.5554432331</v>
       </c>
       <c r="AE2" t="n">
-        <v>151383.9266017521</v>
+        <v>184671.3001938932</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.180046595256464e-06</v>
+        <v>8.959765143224665e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.330295138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>136936.0571155976</v>
+        <v>167046.5304912376</v>
       </c>
     </row>
   </sheetData>
@@ -55714,28 +55714,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.5271693127767</v>
+        <v>332.9548938670736</v>
       </c>
       <c r="AB2" t="n">
-        <v>404.3533107922947</v>
+        <v>455.5635747221557</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.7623983237133</v>
+        <v>412.0852265381652</v>
       </c>
       <c r="AD2" t="n">
-        <v>295527.1693127766</v>
+        <v>332954.8938670736</v>
       </c>
       <c r="AE2" t="n">
-        <v>404353.3107922947</v>
+        <v>455563.5747221557</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.74489887601282e-06</v>
+        <v>5.057290994736493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.26171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>365762.3983237133</v>
+        <v>412085.2265381652</v>
       </c>
     </row>
     <row r="3">
@@ -55820,28 +55820,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.1291530810252</v>
+        <v>245.5567881267707</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.7714892555273</v>
+        <v>335.9816307158135</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.5932980003589</v>
+        <v>303.9160154335767</v>
       </c>
       <c r="AD3" t="n">
-        <v>208129.1530810252</v>
+        <v>245556.7881267707</v>
       </c>
       <c r="AE3" t="n">
-        <v>284771.4892555273</v>
+        <v>335981.6307158135</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.408026479131208e-06</v>
+        <v>6.279058865647362e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.655815972222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>257593.2980003589</v>
+        <v>303916.0154335767</v>
       </c>
     </row>
     <row r="4">
@@ -55926,28 +55926,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.3288576430297</v>
+        <v>219.3783382222469</v>
       </c>
       <c r="AB4" t="n">
-        <v>261.7845838605482</v>
+        <v>300.1631206447619</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.8002305939449</v>
+        <v>271.5159736921002</v>
       </c>
       <c r="AD4" t="n">
-        <v>191328.8576430297</v>
+        <v>219378.3382222469</v>
       </c>
       <c r="AE4" t="n">
-        <v>261784.5838605482</v>
+        <v>300163.1206447619</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.632308880438073e-06</v>
+        <v>6.692284058866388e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.243489583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>236800.2305939449</v>
+        <v>271515.9736921002</v>
       </c>
     </row>
     <row r="5">
@@ -56032,28 +56032,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>182.1433540120159</v>
+        <v>210.1928345912331</v>
       </c>
       <c r="AB5" t="n">
-        <v>249.2165725567812</v>
+        <v>287.595109340995</v>
       </c>
       <c r="AC5" t="n">
-        <v>225.4316926496909</v>
+        <v>260.1474357478461</v>
       </c>
       <c r="AD5" t="n">
-        <v>182143.3540120159</v>
+        <v>210192.8345912331</v>
       </c>
       <c r="AE5" t="n">
-        <v>249216.5725567812</v>
+        <v>287595.109340995</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.75657345413512e-06</v>
+        <v>6.921233152406659e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.037326388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>225431.6926496909</v>
+        <v>260147.4357478461</v>
       </c>
     </row>
     <row r="6">
@@ -56138,28 +56138,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>167.3941656507725</v>
+        <v>195.5288975760103</v>
       </c>
       <c r="AB6" t="n">
-        <v>229.036082352671</v>
+        <v>267.531263789534</v>
       </c>
       <c r="AC6" t="n">
-        <v>207.1772001071587</v>
+        <v>241.9984554560261</v>
       </c>
       <c r="AD6" t="n">
-        <v>167394.1656507725</v>
+        <v>195528.8975760103</v>
       </c>
       <c r="AE6" t="n">
-        <v>229036.082352671</v>
+        <v>267531.263789534</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.818339949555604e-06</v>
+        <v>7.035033753148713e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.939670138888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>207177.2001071587</v>
+        <v>241998.4554560261</v>
       </c>
     </row>
     <row r="7">
@@ -56244,28 +56244,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>162.6633944404858</v>
+        <v>190.7981263657236</v>
       </c>
       <c r="AB7" t="n">
-        <v>222.5632324758639</v>
+        <v>261.0584139127269</v>
       </c>
       <c r="AC7" t="n">
-        <v>201.3221099378901</v>
+        <v>236.1433652867576</v>
       </c>
       <c r="AD7" t="n">
-        <v>162663.3944404858</v>
+        <v>190798.1263657236</v>
       </c>
       <c r="AE7" t="n">
-        <v>222563.2324758639</v>
+        <v>261058.4139127269</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.86934172580805e-06</v>
+        <v>7.129001085064316e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.861545138888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>201322.1099378901</v>
+        <v>236143.3652867576</v>
       </c>
     </row>
     <row r="8">
@@ -56350,28 +56350,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>159.1527972493347</v>
+        <v>187.2875291745725</v>
       </c>
       <c r="AB8" t="n">
-        <v>217.759878522316</v>
+        <v>256.2550599591789</v>
       </c>
       <c r="AC8" t="n">
-        <v>196.9771813441176</v>
+        <v>231.7984366929851</v>
       </c>
       <c r="AD8" t="n">
-        <v>159152.7972493347</v>
+        <v>187287.5291745725</v>
       </c>
       <c r="AE8" t="n">
-        <v>217759.878522316</v>
+        <v>256255.0599591789</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.898918575561005e-06</v>
+        <v>7.183494435335044e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.815972222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>196977.1813441176</v>
+        <v>231798.4366929851</v>
       </c>
     </row>
     <row r="9">
@@ -56456,28 +56456,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>156.8465058636494</v>
+        <v>184.9812377888873</v>
       </c>
       <c r="AB9" t="n">
-        <v>214.604308902028</v>
+        <v>253.0994903388909</v>
       </c>
       <c r="AC9" t="n">
-        <v>194.1227748595192</v>
+        <v>228.9440302083866</v>
       </c>
       <c r="AD9" t="n">
-        <v>156846.5058636495</v>
+        <v>184981.2377888873</v>
       </c>
       <c r="AE9" t="n">
-        <v>214604.308902028</v>
+        <v>253099.4903388909</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.91720814696301e-06</v>
+        <v>7.217191736739206e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.789930555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>194122.7748595192</v>
+        <v>228944.0302083866</v>
       </c>
     </row>
   </sheetData>
@@ -56753,28 +56753,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.6973306431776</v>
+        <v>438.0955596470973</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.2010800188576</v>
+        <v>599.4216721211907</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.313117294273</v>
+        <v>542.2137090275442</v>
       </c>
       <c r="AD2" t="n">
-        <v>389697.3306431776</v>
+        <v>438095.5596470973</v>
       </c>
       <c r="AE2" t="n">
-        <v>533201.0800188576</v>
+        <v>599421.6721211907</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.351648379845224e-06</v>
+        <v>4.201048211338216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.286024305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>482313.1172942729</v>
+        <v>542213.7090275441</v>
       </c>
     </row>
     <row r="3">
@@ -56859,28 +56859,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.5453021796304</v>
+        <v>286.6866844108918</v>
       </c>
       <c r="AB3" t="n">
-        <v>352.3848445388404</v>
+        <v>392.2573693348679</v>
       </c>
       <c r="AC3" t="n">
-        <v>318.7537295513943</v>
+        <v>354.8208765422228</v>
       </c>
       <c r="AD3" t="n">
-        <v>257545.3021796304</v>
+        <v>286686.6844108918</v>
       </c>
       <c r="AE3" t="n">
-        <v>352384.8445388403</v>
+        <v>392257.3693348679</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.10118536078173e-06</v>
+        <v>5.540041327861188e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.042100694444446</v>
       </c>
       <c r="AH3" t="n">
-        <v>318753.7295513942</v>
+        <v>354820.8765422229</v>
       </c>
     </row>
     <row r="4">
@@ -56965,28 +56965,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>223.3345769526686</v>
+        <v>252.3906183293548</v>
       </c>
       <c r="AB4" t="n">
-        <v>305.5762210126567</v>
+        <v>345.3319786862951</v>
       </c>
       <c r="AC4" t="n">
-        <v>276.4124553582189</v>
+        <v>312.3739793170541</v>
       </c>
       <c r="AD4" t="n">
-        <v>223334.5769526686</v>
+        <v>252390.6183293548</v>
       </c>
       <c r="AE4" t="n">
-        <v>305576.2210126568</v>
+        <v>345331.9786862951</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.364413813208888e-06</v>
+        <v>6.010279748162449e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.490885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>276412.4553582189</v>
+        <v>312373.9793170542</v>
       </c>
     </row>
     <row r="5">
@@ -57071,28 +57071,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>211.7996280678148</v>
+        <v>240.8556694445009</v>
       </c>
       <c r="AB5" t="n">
-        <v>289.7935950623781</v>
+        <v>329.5493527360165</v>
       </c>
       <c r="AC5" t="n">
-        <v>262.1361010775753</v>
+        <v>298.0976250364105</v>
       </c>
       <c r="AD5" t="n">
-        <v>211799.6280678147</v>
+        <v>240855.6694445009</v>
       </c>
       <c r="AE5" t="n">
-        <v>289793.5950623782</v>
+        <v>329549.3527360165</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.499851694312463e-06</v>
+        <v>6.252229638730299e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.239149305555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>262136.1010775753</v>
+        <v>298097.6250364105</v>
       </c>
     </row>
     <row r="6">
@@ -57177,28 +57177,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>204.3428722136251</v>
+        <v>233.3989135903113</v>
       </c>
       <c r="AB6" t="n">
-        <v>279.5909327338302</v>
+        <v>319.3466904074685</v>
       </c>
       <c r="AC6" t="n">
-        <v>252.9071665221342</v>
+        <v>288.8686904809695</v>
       </c>
       <c r="AD6" t="n">
-        <v>204342.8722136251</v>
+        <v>233398.9135903113</v>
       </c>
       <c r="AE6" t="n">
-        <v>279590.9327338302</v>
+        <v>319346.6904074685</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.588500114262129e-06</v>
+        <v>6.410593571561114e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.085069444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>252907.1665221342</v>
+        <v>288868.6904809694</v>
       </c>
     </row>
     <row r="7">
@@ -57283,28 +57283,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>199.7278934337592</v>
+        <v>228.7839348104454</v>
       </c>
       <c r="AB7" t="n">
-        <v>273.2765151687263</v>
+        <v>313.0322728423647</v>
       </c>
       <c r="AC7" t="n">
-        <v>247.1953881071011</v>
+        <v>283.1569120659364</v>
       </c>
       <c r="AD7" t="n">
-        <v>199727.8934337593</v>
+        <v>228783.9348104454</v>
       </c>
       <c r="AE7" t="n">
-        <v>273276.5151687263</v>
+        <v>313032.2728423647</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.637201402861038e-06</v>
+        <v>6.49759486950676e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.002604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>247195.3881071011</v>
+        <v>283156.9120659364</v>
       </c>
     </row>
     <row r="8">
@@ -57389,28 +57389,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>185.9519839455705</v>
+        <v>215.0932766682772</v>
       </c>
       <c r="AB8" t="n">
-        <v>254.4277080567622</v>
+        <v>294.3001103830497</v>
       </c>
       <c r="AC8" t="n">
-        <v>230.1454846914299</v>
+        <v>266.2125209009774</v>
       </c>
       <c r="AD8" t="n">
-        <v>185951.9839455705</v>
+        <v>215093.2766682772</v>
       </c>
       <c r="AE8" t="n">
-        <v>254427.7080567621</v>
+        <v>294300.1103830497</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.678959739159689e-06</v>
+        <v>6.572193089852718e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.935329861111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>230145.4846914299</v>
+        <v>266212.5209009774</v>
       </c>
     </row>
     <row r="9">
@@ -57495,28 +57495,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>182.3848757496104</v>
+        <v>211.5261684723171</v>
       </c>
       <c r="AB9" t="n">
-        <v>249.5470332533451</v>
+        <v>289.4194355796326</v>
       </c>
       <c r="AC9" t="n">
-        <v>225.7306146411793</v>
+        <v>261.7976508507268</v>
       </c>
       <c r="AD9" t="n">
-        <v>182384.8757496104</v>
+        <v>211526.1684723171</v>
       </c>
       <c r="AE9" t="n">
-        <v>249547.0332533451</v>
+        <v>289419.4355796326</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.712668275689925e-06</v>
+        <v>6.632410930372948e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.881076388888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>225730.6146411793</v>
+        <v>261797.6508507268</v>
       </c>
     </row>
     <row r="10">
@@ -57601,28 +57601,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>179.1626121714558</v>
+        <v>208.3039048941625</v>
       </c>
       <c r="AB10" t="n">
-        <v>245.1381900694799</v>
+        <v>285.0105923957675</v>
       </c>
       <c r="AC10" t="n">
-        <v>221.7425452629305</v>
+        <v>257.809581472478</v>
       </c>
       <c r="AD10" t="n">
-        <v>179162.6121714558</v>
+        <v>208303.9048941626</v>
       </c>
       <c r="AE10" t="n">
-        <v>245138.19006948</v>
+        <v>285010.5923957675</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.738930747434378e-06</v>
+        <v>6.679326919554381e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.83984375</v>
       </c>
       <c r="AH10" t="n">
-        <v>221742.5452629305</v>
+        <v>257809.581472478</v>
       </c>
     </row>
     <row r="11">
@@ -57707,28 +57707,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>176.4263263457007</v>
+        <v>205.5676190684074</v>
       </c>
       <c r="AB11" t="n">
-        <v>241.3942830862728</v>
+        <v>281.2666854125603</v>
       </c>
       <c r="AC11" t="n">
-        <v>218.355951507593</v>
+        <v>254.4229877171405</v>
       </c>
       <c r="AD11" t="n">
-        <v>176426.3263457007</v>
+        <v>205567.6190684074</v>
       </c>
       <c r="AE11" t="n">
-        <v>241394.2830862728</v>
+        <v>281266.6854125603</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.757646531895942e-06</v>
+        <v>6.712761302649195e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.811631944444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>218355.951507593</v>
+        <v>254422.9877171405</v>
       </c>
     </row>
     <row r="12">
@@ -57813,28 +57813,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>173.4736745903587</v>
+        <v>202.6149673130655</v>
       </c>
       <c r="AB12" t="n">
-        <v>237.3543346928139</v>
+        <v>277.2267370191014</v>
       </c>
       <c r="AC12" t="n">
-        <v>214.7015701187014</v>
+        <v>250.7686063282489</v>
       </c>
       <c r="AD12" t="n">
-        <v>173473.6745903587</v>
+        <v>202614.9673130655</v>
       </c>
       <c r="AE12" t="n">
-        <v>237354.3346928139</v>
+        <v>277226.7370191014</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.7762616938604e-06</v>
+        <v>6.746015930996187e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.783420138888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>214701.5701187014</v>
+        <v>250768.6063282489</v>
       </c>
     </row>
     <row r="13">
@@ -57919,28 +57919,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>172.1634734212116</v>
+        <v>201.3047661439183</v>
       </c>
       <c r="AB13" t="n">
-        <v>235.5616596511915</v>
+        <v>275.4340619774791</v>
       </c>
       <c r="AC13" t="n">
-        <v>213.0799854670157</v>
+        <v>249.1470216765631</v>
       </c>
       <c r="AD13" t="n">
-        <v>172163.4734212116</v>
+        <v>201304.7661439183</v>
       </c>
       <c r="AE13" t="n">
-        <v>235561.6596511915</v>
+        <v>275434.0619774791</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.783506513651974e-06</v>
+        <v>6.758958272839342e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.770399305555555</v>
       </c>
       <c r="AH13" t="n">
-        <v>213079.9854670156</v>
+        <v>249147.0216765631</v>
       </c>
     </row>
     <row r="14">
@@ -58025,28 +58025,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>172.8535414825002</v>
+        <v>201.9948342052069</v>
       </c>
       <c r="AB14" t="n">
-        <v>236.5058412163003</v>
+        <v>276.3782435425878</v>
       </c>
       <c r="AC14" t="n">
-        <v>213.9340556687179</v>
+        <v>250.0010918782654</v>
       </c>
       <c r="AD14" t="n">
-        <v>172853.5414825001</v>
+        <v>201994.8342052069</v>
       </c>
       <c r="AE14" t="n">
-        <v>236505.8412163003</v>
+        <v>276378.2435425879</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.783305268657763e-06</v>
+        <v>6.758598763343699e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.772569444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>213934.0556687179</v>
+        <v>250001.0918782654</v>
       </c>
     </row>
   </sheetData>
